--- a/NutrientsData.xlsx
+++ b/NutrientsData.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/321e4917f5e22f1c/Desktop/IT-Projekte/Multidimensional_Nutri-Score/Code/Multidimensional-Nutri-Score/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_B53138B168FF30212D2D4CE955AF0E4778796F5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B967A47F-AE66-4772-A061-79899BF2C93B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nutrients" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2500,8 +2519,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2560,15 +2579,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2610,7 +2637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2642,9 +2669,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2676,6 +2721,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2851,14 +2914,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="29" width="24.21875" customWidth="1"/>
+    <col min="30" max="32" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:135">
+    <row r="1" spans="1:135" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3262,7 +3331,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:135">
+    <row r="2" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3669,7 +3738,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:135">
+    <row r="3" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4076,7 +4145,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:135">
+    <row r="4" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4483,7 +4552,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:135">
+    <row r="5" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4890,7 +4959,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:135">
+    <row r="6" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5297,7 +5366,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:135">
+    <row r="7" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5704,7 +5773,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="8" spans="1:135">
+    <row r="8" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6111,7 +6180,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:135">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6518,7 +6587,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:135">
+    <row r="10" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6925,7 +6994,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:135">
+    <row r="11" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7332,7 +7401,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:135">
+    <row r="12" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>

--- a/NutrientsData.xlsx
+++ b/NutrientsData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/321e4917f5e22f1c/Desktop/IT-Projekte/Multidimensional_Nutri-Score/Code/Multidimensional-Nutri-Score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_B53138B168FF30212D2D4CE955AF0E4778796F5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B967A47F-AE66-4772-A061-79899BF2C93B}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_B53138B168FF30212D2D4CE955AF0E4778796F5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21151B3-DC5C-437C-BED4-EA1DDB0FFCF7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -770,1750 +770,1750 @@
     <t>38,0 µg (= 126,7 IE)</t>
   </si>
   <si>
+    <t>143,0 µg (= 476,7 IE)</t>
+  </si>
+  <si>
+    <t>7,0 µg (= 23,3 IE)</t>
+  </si>
+  <si>
+    <t>17,0 µg (= 56,7 IE)</t>
+  </si>
+  <si>
+    <t>17.900,0 µg (= 59.666,6 IE)</t>
+  </si>
+  <si>
+    <t>100,0 µg (= 333,3 IE)</t>
+  </si>
+  <si>
+    <t>0,0 µg (= 0,0 IE)</t>
+  </si>
+  <si>
+    <t>22,0 µg (= 73,3 IE)</t>
+  </si>
+  <si>
+    <t>8,0 µg (= 26,7 IE)</t>
+  </si>
+  <si>
+    <t>278,0 µg (= 926,7 IE)</t>
+  </si>
+  <si>
+    <t>20,0 µg (= 66,7 IE)</t>
+  </si>
+  <si>
+    <t>276,0 µg (= 920,0 IE)</t>
+  </si>
+  <si>
+    <t>230,0 µg (= 766,7 IE)</t>
+  </si>
+  <si>
+    <t>2.400,0 µg (= 8.000,0 IE)</t>
+  </si>
+  <si>
+    <t>846,0 µg (= 2.820,0 IE)</t>
+  </si>
+  <si>
+    <t>40,0 µg (= 133,3 IE)</t>
+  </si>
+  <si>
+    <t>10,0 µg (= 33,3 IE)</t>
+  </si>
+  <si>
+    <t>48,0 µg (= 160,0 IE)</t>
+  </si>
+  <si>
+    <t>13,0 µg (= 43,3 IE)</t>
+  </si>
+  <si>
+    <t>44,0 µg (= 14,7 IE)</t>
+  </si>
+  <si>
+    <t>200,0 µg (= 66,7 IE)</t>
+  </si>
+  <si>
+    <t>98,0 µg (= 32,7 IE)</t>
+  </si>
+  <si>
+    <t>130,0 µg (= 43,3 IE)</t>
+  </si>
+  <si>
+    <t>198,0 µg (= 66,0 IE)</t>
+  </si>
+  <si>
+    <t>266,0 µg (= 88,7 IE)</t>
+  </si>
+  <si>
+    <t>562,0 µg (= 187,3 IE)</t>
+  </si>
+  <si>
+    <t>40,0 µg (= 13,3 IE)</t>
+  </si>
+  <si>
+    <t>340,0 µg (= 113,3 IE)</t>
+  </si>
+  <si>
+    <t>100,0 µg (= 33,3 IE)</t>
+  </si>
+  <si>
+    <t>57,0 µg</t>
+  </si>
+  <si>
+    <t>150,0 µg</t>
+  </si>
+  <si>
+    <t>178,0 µg</t>
+  </si>
+  <si>
+    <t>400,0 µg</t>
+  </si>
+  <si>
+    <t>228,0 µg</t>
+  </si>
+  <si>
+    <t>3.085,0 µg</t>
+  </si>
+  <si>
+    <t>360,0 µg</t>
+  </si>
+  <si>
+    <t>28,0 µg</t>
+  </si>
+  <si>
+    <t>170,0 µg</t>
+  </si>
+  <si>
+    <t>120,0 µg</t>
+  </si>
+  <si>
+    <t>310,0 µg</t>
+  </si>
+  <si>
+    <t>650,0 µg</t>
+  </si>
+  <si>
+    <t>800,0 µg</t>
+  </si>
+  <si>
+    <t>1.000,0 µg</t>
+  </si>
+  <si>
+    <t>2.700,0 µg</t>
+  </si>
+  <si>
+    <t>6.466,0 µg</t>
+  </si>
+  <si>
+    <t>14.700,0 µg</t>
+  </si>
+  <si>
+    <t>7.500,0 µg</t>
+  </si>
+  <si>
+    <t>90,0 µg</t>
+  </si>
+  <si>
+    <t>83,0 µg</t>
+  </si>
+  <si>
+    <t>950,0 µg</t>
+  </si>
+  <si>
+    <t>3.733,0 µg</t>
+  </si>
+  <si>
+    <t>1.550,0 µg</t>
+  </si>
+  <si>
+    <t>6.667,0 µg</t>
+  </si>
+  <si>
+    <t>10.066,0 µg</t>
+  </si>
+  <si>
+    <t>19.867,0 µg</t>
+  </si>
+  <si>
+    <t>12.000,0 µg</t>
+  </si>
+  <si>
+    <t>4.167,0 µg</t>
+  </si>
+  <si>
+    <t>823,0 µg</t>
+  </si>
+  <si>
+    <t>3.167,0 µg</t>
+  </si>
+  <si>
+    <t>3.100,0 µg</t>
+  </si>
+  <si>
+    <t>230,0 µg</t>
+  </si>
+  <si>
+    <t>300,0 µg</t>
+  </si>
+  <si>
+    <t>1.290,0 µg</t>
+  </si>
+  <si>
+    <t>1.100,0 µg</t>
+  </si>
+  <si>
+    <t>498,0 µg</t>
+  </si>
+  <si>
+    <t>7.300,0 µg</t>
+  </si>
+  <si>
+    <t>460,0 µg</t>
+  </si>
+  <si>
+    <t>1.090,0 µg</t>
+  </si>
+  <si>
+    <t>370,0 µg</t>
+  </si>
+  <si>
+    <t>820,0 µg</t>
+  </si>
+  <si>
+    <t>1.600,0 µg</t>
+  </si>
+  <si>
+    <t>160,0 µg</t>
+  </si>
+  <si>
+    <t>140,0 µg</t>
+  </si>
+  <si>
+    <t>158,0 µg</t>
+  </si>
+  <si>
+    <t>961,0 µg</t>
+  </si>
+  <si>
+    <t>630,0 µg</t>
+  </si>
+  <si>
+    <t>98,0 µg</t>
+  </si>
+  <si>
+    <t>50,0 µg</t>
+  </si>
+  <si>
+    <t>870,0 µg</t>
+  </si>
+  <si>
+    <t>5,5 µg</t>
+  </si>
+  <si>
+    <t>0,5 µg</t>
+  </si>
+  <si>
+    <t>20,0 µg</t>
+  </si>
+  <si>
+    <t>2,5 µg</t>
+  </si>
+  <si>
+    <t>100,0 µg</t>
+  </si>
+  <si>
+    <t>4,0 µg</t>
+  </si>
+  <si>
+    <t>3,6 µg</t>
+  </si>
+  <si>
+    <t>19,0 µg</t>
+  </si>
+  <si>
+    <t>25,0 µg</t>
+  </si>
+  <si>
+    <t>30,0 µg</t>
+  </si>
+  <si>
+    <t>38,0 µg</t>
+  </si>
+  <si>
+    <t>2,0 µg</t>
+  </si>
+  <si>
+    <t>592,0 µg</t>
+  </si>
+  <si>
+    <t>1,0 µg</t>
+  </si>
+  <si>
+    <t>87,0 µg</t>
+  </si>
+  <si>
+    <t>5,0 µg</t>
+  </si>
+  <si>
+    <t>77,0 µg</t>
+  </si>
+  <si>
+    <t>65,0 µg</t>
+  </si>
+  <si>
+    <t>0,0 µg</t>
+  </si>
+  <si>
+    <t>4,4 µg</t>
+  </si>
+  <si>
+    <t>9,0 µg</t>
+  </si>
+  <si>
+    <t>12.000,0 µg (= 240,0 IE)</t>
+  </si>
+  <si>
+    <t>333.000,0 µg (= 6.660,0 IE)</t>
+  </si>
+  <si>
+    <t>115.000,0 µg (= 2.300,0 IE)</t>
+  </si>
+  <si>
+    <t>32.000,0 µg (= 640,0 IE)</t>
+  </si>
+  <si>
+    <t>1.000,0 µg (= 20,0 IE)</t>
+  </si>
+  <si>
+    <t>2.600,0 µg (= 52,0 IE)</t>
+  </si>
+  <si>
+    <t>1,7 µg (= 68,0 IE)</t>
+  </si>
+  <si>
+    <t>4,0 µg (= 160,0 IE)</t>
+  </si>
+  <si>
+    <t>2,9 µg (= 116,0 IE)</t>
+  </si>
+  <si>
+    <t>270,0 µg (= 0,4 IE)</t>
+  </si>
+  <si>
+    <t>800,0 µg (= 1,2 IE)</t>
+  </si>
+  <si>
+    <t>621,0 µg (= 0,9 IE)</t>
+  </si>
+  <si>
+    <t>680,0 µg (= 1,0 IE)</t>
+  </si>
+  <si>
+    <t>398,0 µg (= 0,6 IE)</t>
+  </si>
+  <si>
+    <t>750,0 µg (= 1,1 IE)</t>
+  </si>
+  <si>
+    <t>1.250,0 µg (= 1,9 IE)</t>
+  </si>
+  <si>
+    <t>40,0 µg (= 0,1 IE)</t>
+  </si>
+  <si>
+    <t>6.040,0 µg (= 9,0 IE)</t>
+  </si>
+  <si>
+    <t>2.022,0 µg (= 3,0 IE)</t>
+  </si>
+  <si>
+    <t>10,0 µg</t>
+  </si>
+  <si>
+    <t>121,0 µg</t>
+  </si>
+  <si>
+    <t>11,0 µg</t>
+  </si>
+  <si>
+    <t>75,0 µg</t>
+  </si>
+  <si>
+    <t>63,0 µg</t>
+  </si>
+  <si>
+    <t>48,0 µg</t>
+  </si>
+  <si>
+    <t>1,0 mg</t>
+  </si>
+  <si>
+    <t>80,0 mg</t>
+  </si>
+  <si>
+    <t>19,0 mg</t>
+  </si>
+  <si>
+    <t>17,0 mg</t>
+  </si>
+  <si>
+    <t>60,0 mg</t>
+  </si>
+  <si>
+    <t>116,0 mg</t>
+  </si>
+  <si>
+    <t>2,0 mg</t>
+  </si>
+  <si>
+    <t>50,0 mg</t>
+  </si>
+  <si>
+    <t>144,0 mg</t>
+  </si>
+  <si>
+    <t>393,0 mg</t>
+  </si>
+  <si>
+    <t>475,0 mg</t>
+  </si>
+  <si>
+    <t>373,0 mg</t>
+  </si>
+  <si>
+    <t>1.920,0 mg</t>
+  </si>
+  <si>
+    <t>310,0 mg</t>
+  </si>
+  <si>
+    <t>340,0 mg</t>
+  </si>
+  <si>
+    <t>380,0 mg</t>
+  </si>
+  <si>
+    <t>382,0 mg</t>
+  </si>
+  <si>
+    <t>150,0 mg</t>
+  </si>
+  <si>
+    <t>544,0 mg</t>
+  </si>
+  <si>
+    <t>147,0 mg</t>
+  </si>
+  <si>
+    <t>9,0 mg</t>
+  </si>
+  <si>
+    <t>713,0 mg</t>
+  </si>
+  <si>
+    <t>105,0 mg</t>
+  </si>
+  <si>
+    <t>114,0 mg</t>
+  </si>
+  <si>
+    <t>6,0 mg</t>
+  </si>
+  <si>
+    <t>12,0 mg</t>
+  </si>
+  <si>
+    <t>16,0 mg</t>
+  </si>
+  <si>
+    <t>120,0 mg</t>
+  </si>
+  <si>
+    <t>87,0 mg</t>
+  </si>
+  <si>
+    <t>56,0 mg</t>
+  </si>
+  <si>
+    <t>36,0 mg</t>
+  </si>
+  <si>
+    <t>24,0 mg</t>
+  </si>
+  <si>
+    <t>414,0 mg</t>
+  </si>
+  <si>
+    <t>21,0 mg</t>
+  </si>
+  <si>
+    <t>30,0 mg</t>
+  </si>
+  <si>
+    <t>121,0 mg</t>
+  </si>
+  <si>
+    <t>130,0 mg</t>
+  </si>
+  <si>
+    <t>28,0 mg</t>
+  </si>
+  <si>
+    <t>138,0 mg</t>
+  </si>
+  <si>
+    <t>82,0 mg</t>
+  </si>
+  <si>
+    <t>656,0 mg</t>
+  </si>
+  <si>
+    <t>168,0 mg</t>
+  </si>
+  <si>
+    <t>351,0 mg</t>
+  </si>
+  <si>
+    <t>244,0 mg</t>
+  </si>
+  <si>
+    <t>325,0 mg</t>
+  </si>
+  <si>
+    <t>100,0 mg</t>
+  </si>
+  <si>
+    <t>410,0 mg</t>
+  </si>
+  <si>
+    <t>216,0 mg</t>
+  </si>
+  <si>
+    <t>109,0 mg</t>
+  </si>
+  <si>
+    <t>78,0 mg</t>
+  </si>
+  <si>
+    <t>32,0 mg</t>
+  </si>
+  <si>
+    <t>68,0 mg</t>
+  </si>
+  <si>
+    <t>143,0 mg</t>
+  </si>
+  <si>
+    <t>61,0 mg</t>
+  </si>
+  <si>
+    <t>23,0 mg</t>
+  </si>
+  <si>
+    <t>180,0 mg</t>
+  </si>
+  <si>
+    <t>13,0 mg</t>
+  </si>
+  <si>
+    <t>40,0 mg</t>
+  </si>
+  <si>
+    <t>200,0 mg</t>
+  </si>
+  <si>
+    <t>240,0 mg</t>
+  </si>
+  <si>
+    <t>190,0 mg</t>
+  </si>
+  <si>
+    <t>140,0 mg</t>
+  </si>
+  <si>
+    <t>550,0 µg</t>
+  </si>
+  <si>
+    <t>4.120,0 µg</t>
+  </si>
+  <si>
+    <t>1.300,0 µg</t>
+  </si>
+  <si>
+    <t>12.500,0 µg</t>
+  </si>
+  <si>
+    <t>1.920,0 µg</t>
+  </si>
+  <si>
+    <t>6.895,0 µg</t>
+  </si>
+  <si>
+    <t>1.174,0 µg</t>
+  </si>
+  <si>
+    <t>4.437,0 µg</t>
+  </si>
+  <si>
+    <t>2.500,0 µg</t>
+  </si>
+  <si>
+    <t>2.100,0 µg</t>
+  </si>
+  <si>
+    <t>220,0 µg</t>
+  </si>
+  <si>
+    <t>1.020,0 µg</t>
+  </si>
+  <si>
+    <t>605,0 µg</t>
+  </si>
+  <si>
+    <t>5.727,0 µg</t>
+  </si>
+  <si>
+    <t>3.731,0 µg</t>
+  </si>
+  <si>
+    <t>4.816,0 µg</t>
+  </si>
+  <si>
+    <t>519,0 µg</t>
+  </si>
+  <si>
+    <t>3.642,0 µg</t>
+  </si>
+  <si>
+    <t>1.350,0 µg</t>
+  </si>
+  <si>
+    <t>130,0 µg</t>
+  </si>
+  <si>
+    <t>240,0 µg</t>
+  </si>
+  <si>
+    <t>126,0 µg</t>
+  </si>
+  <si>
+    <t>3.807,0 µg</t>
+  </si>
+  <si>
+    <t>3.195,0 µg</t>
+  </si>
+  <si>
+    <t>114,0 µg</t>
+  </si>
+  <si>
+    <t>410,0 µg</t>
+  </si>
+  <si>
+    <t>12,0 µg</t>
+  </si>
+  <si>
+    <t>880,0 µg</t>
+  </si>
+  <si>
+    <t>530,0 µg</t>
+  </si>
+  <si>
+    <t>1.260,0 µg</t>
+  </si>
+  <si>
+    <t>260,0 µg</t>
+  </si>
+  <si>
+    <t>3.000,0 µg</t>
+  </si>
+  <si>
+    <t>338,0 µg</t>
+  </si>
+  <si>
+    <t>31,0 µg</t>
+  </si>
+  <si>
+    <t>4.934,0 µg</t>
+  </si>
+  <si>
+    <t>1.970,0 µg</t>
+  </si>
+  <si>
+    <t>80,0 µg</t>
+  </si>
+  <si>
+    <t>53,0 µg</t>
+  </si>
+  <si>
+    <t>13,0 µg</t>
+  </si>
+  <si>
+    <t>680,0 µg</t>
+  </si>
+  <si>
+    <t>110,0 µg</t>
+  </si>
+  <si>
+    <t>2,8 µg</t>
+  </si>
+  <si>
+    <t>3,0 µg</t>
+  </si>
+  <si>
+    <t>15,0 µg</t>
+  </si>
+  <si>
+    <t>0,3 µg</t>
+  </si>
+  <si>
+    <t>14,0 µg</t>
+  </si>
+  <si>
+    <t>49,8 µg</t>
+  </si>
+  <si>
+    <t>0,8 µg</t>
+  </si>
+  <si>
+    <t>7,5 µg</t>
+  </si>
+  <si>
+    <t>0,0 mg</t>
+  </si>
+  <si>
+    <t>3.786,0 mg</t>
+  </si>
+  <si>
+    <t>246,0 mg</t>
+  </si>
+  <si>
+    <t>1.003,0 mg</t>
+  </si>
+  <si>
+    <t>700,0 mg</t>
+  </si>
+  <si>
+    <t>3.636,0 mg</t>
+  </si>
+  <si>
+    <t>284,0 mg</t>
+  </si>
+  <si>
+    <t>904,0 mg</t>
+  </si>
+  <si>
+    <t>7.422,0 mg</t>
+  </si>
+  <si>
+    <t>530,0 mg</t>
+  </si>
+  <si>
+    <t>1.907,0 mg</t>
+  </si>
+  <si>
+    <t>11.016,0 mg</t>
+  </si>
+  <si>
+    <t>317,0 mg</t>
+  </si>
+  <si>
+    <t>477,0 mg</t>
+  </si>
+  <si>
+    <t>8.672,0 mg</t>
+  </si>
+  <si>
+    <t>710,0 mg</t>
+  </si>
+  <si>
+    <t>6.890,0 mg</t>
+  </si>
+  <si>
+    <t>4.100,0 mg</t>
+  </si>
+  <si>
+    <t>770,0 mg</t>
+  </si>
+  <si>
+    <t>596,0 mg</t>
+  </si>
+  <si>
+    <t>457,0 mg</t>
+  </si>
+  <si>
+    <t>5.300,0 mg</t>
+  </si>
+  <si>
+    <t>2.952,0 mg</t>
+  </si>
+  <si>
+    <t>462,0 mg</t>
+  </si>
+  <si>
+    <t>126,0 mg</t>
+  </si>
+  <si>
+    <t>2.168,0 mg</t>
+  </si>
+  <si>
+    <t>57.992,0 mg</t>
+  </si>
+  <si>
+    <t>3.710,0 mg</t>
+  </si>
+  <si>
+    <t>38,0 mg</t>
+  </si>
+  <si>
+    <t>247,0 mg</t>
+  </si>
+  <si>
+    <t>129,0 mg</t>
+  </si>
+  <si>
+    <t>554,0 mg</t>
+  </si>
+  <si>
+    <t>1.022,0 mg</t>
+  </si>
+  <si>
+    <t>1.150,0 mg</t>
+  </si>
+  <si>
+    <t>1.090,0 mg</t>
+  </si>
+  <si>
+    <t>610,0 mg</t>
+  </si>
+  <si>
+    <t>194,0 mg</t>
+  </si>
+  <si>
+    <t>547,0 mg</t>
+  </si>
+  <si>
+    <t>787,0 mg</t>
+  </si>
+  <si>
+    <t>84,0 mg</t>
+  </si>
+  <si>
+    <t>474,0 mg</t>
+  </si>
+  <si>
+    <t>158,0 mg</t>
+  </si>
+  <si>
+    <t>911,0 mg</t>
+  </si>
+  <si>
+    <t>1.592,0 mg</t>
+  </si>
+  <si>
+    <t>1.990,0 mg</t>
+  </si>
+  <si>
+    <t>1.800,0 mg</t>
+  </si>
+  <si>
+    <t>1.130,0 mg</t>
+  </si>
+  <si>
+    <t>321,0 mg</t>
+  </si>
+  <si>
+    <t>950,0 mg</t>
+  </si>
+  <si>
+    <t>1.082,0 mg</t>
+  </si>
+  <si>
+    <t>58,0 mg</t>
+  </si>
+  <si>
+    <t>415,0 mg</t>
+  </si>
+  <si>
+    <t>155,0 mg</t>
+  </si>
+  <si>
+    <t>594,0 mg</t>
+  </si>
+  <si>
+    <t>1.710,0 mg</t>
+  </si>
+  <si>
+    <t>1.750,0 mg</t>
+  </si>
+  <si>
+    <t>1.730,0 mg</t>
+  </si>
+  <si>
+    <t>500,0 mg</t>
+  </si>
+  <si>
+    <t>241,0 mg</t>
+  </si>
+  <si>
+    <t>302,0 mg</t>
+  </si>
+  <si>
+    <t>735,0 mg</t>
+  </si>
+  <si>
+    <t>119,0 mg</t>
+  </si>
+  <si>
+    <t>43,0 mg</t>
+  </si>
+  <si>
+    <t>238,0 mg</t>
+  </si>
+  <si>
+    <t>491,0 mg</t>
+  </si>
+  <si>
+    <t>600,0 mg</t>
+  </si>
+  <si>
+    <t>640,0 mg</t>
+  </si>
+  <si>
+    <t>173,0 mg</t>
+  </si>
+  <si>
+    <t>387,0 mg</t>
+  </si>
+  <si>
+    <t>67,0 mg</t>
+  </si>
+  <si>
+    <t>33,0 mg</t>
+  </si>
+  <si>
+    <t>280,0 mg</t>
+  </si>
+  <si>
+    <t>230,0 mg</t>
+  </si>
+  <si>
+    <t>390,0 mg</t>
+  </si>
+  <si>
+    <t>27,0 mg</t>
+  </si>
+  <si>
+    <t>202,0 mg</t>
+  </si>
+  <si>
+    <t>35,0 mg</t>
+  </si>
+  <si>
+    <t>285,0 mg</t>
+  </si>
+  <si>
+    <t>653,0 mg</t>
+  </si>
+  <si>
+    <t>806,0 mg</t>
+  </si>
+  <si>
+    <t>1.170,0 mg</t>
+  </si>
+  <si>
+    <t>840,0 mg</t>
+  </si>
+  <si>
+    <t>780,0 mg</t>
+  </si>
+  <si>
+    <t>156,0 mg</t>
+  </si>
+  <si>
+    <t>533,0 mg</t>
+  </si>
+  <si>
+    <t>748,0 mg</t>
+  </si>
+  <si>
+    <t>234,0 mg</t>
+  </si>
+  <si>
+    <t>69,0 mg</t>
+  </si>
+  <si>
+    <t>436,0 mg</t>
+  </si>
+  <si>
+    <t>668,0 mg</t>
+  </si>
+  <si>
+    <t>570,0 mg</t>
+  </si>
+  <si>
+    <t>461,0 mg</t>
+  </si>
+  <si>
+    <t>529,0 mg</t>
+  </si>
+  <si>
+    <t>258,0 mg</t>
+  </si>
+  <si>
+    <t>865,0 mg</t>
+  </si>
+  <si>
+    <t>1.010,0 mg</t>
+  </si>
+  <si>
+    <t>970,0 mg</t>
+  </si>
+  <si>
+    <t>139,0 mg</t>
+  </si>
+  <si>
+    <t>418,0 mg</t>
+  </si>
+  <si>
+    <t>658,0 mg</t>
+  </si>
+  <si>
+    <t>18,0 mg</t>
+  </si>
+  <si>
+    <t>176,0 mg</t>
+  </si>
+  <si>
+    <t>270,0 mg</t>
+  </si>
+  <si>
+    <t>44,0 mg</t>
+  </si>
+  <si>
+    <t>181,0 mg</t>
+  </si>
+  <si>
+    <t>292,0 mg</t>
+  </si>
+  <si>
+    <t>871,0 mg</t>
+  </si>
+  <si>
+    <t>1.120,0 mg</t>
+  </si>
+  <si>
+    <t>1.470,0 mg</t>
+  </si>
+  <si>
+    <t>1.210,0 mg</t>
+  </si>
+  <si>
+    <t>810,0 mg</t>
+  </si>
+  <si>
+    <t>211,0 mg</t>
+  </si>
+  <si>
+    <t>634,0 mg</t>
+  </si>
+  <si>
+    <t>1.045,0 mg</t>
+  </si>
+  <si>
+    <t>54,0 mg</t>
+  </si>
+  <si>
+    <t>359,0 mg</t>
+  </si>
+  <si>
+    <t>189,0 mg</t>
+  </si>
+  <si>
+    <t>1.069,0 mg</t>
+  </si>
+  <si>
+    <t>1.278,0 mg</t>
+  </si>
+  <si>
+    <t>1.300,0 mg</t>
+  </si>
+  <si>
+    <t>1.160,0 mg</t>
+  </si>
+  <si>
+    <t>870,0 mg</t>
+  </si>
+  <si>
+    <t>112,0 mg</t>
+  </si>
+  <si>
+    <t>1.742,0 mg</t>
+  </si>
+  <si>
+    <t>826,0 mg</t>
+  </si>
+  <si>
+    <t>77,0 mg</t>
+  </si>
+  <si>
+    <t>101,0 mg</t>
+  </si>
+  <si>
+    <t>660,0 mg</t>
+  </si>
+  <si>
+    <t>300,0 mg</t>
+  </si>
+  <si>
+    <t>288,0 mg</t>
+  </si>
+  <si>
+    <t>492,0 mg</t>
+  </si>
+  <si>
+    <t>3.027,0 mg</t>
+  </si>
+  <si>
+    <t>1.258,0 mg</t>
+  </si>
+  <si>
+    <t>6.713,0 mg</t>
+  </si>
+  <si>
+    <t>10.652,0 mg</t>
+  </si>
+  <si>
+    <t>12.460,0 mg</t>
+  </si>
+  <si>
+    <t>11.420,0 mg</t>
+  </si>
+  <si>
+    <t>6.920,0 mg</t>
+  </si>
+  <si>
+    <t>1.761,0 mg</t>
+  </si>
+  <si>
+    <t>6.380,0 mg</t>
+  </si>
+  <si>
+    <t>7.520,0 mg</t>
+  </si>
+  <si>
+    <t>46,0 mg</t>
+  </si>
+  <si>
+    <t>693,0 mg</t>
+  </si>
+  <si>
+    <t>1.218,0 mg</t>
+  </si>
+  <si>
+    <t>1.440,0 mg</t>
+  </si>
+  <si>
+    <t>1.880,0 mg</t>
+  </si>
+  <si>
+    <t>790,0 mg</t>
+  </si>
+  <si>
+    <t>720,0 mg</t>
+  </si>
+  <si>
+    <t>115,0 mg</t>
+  </si>
+  <si>
+    <t>535,0 mg</t>
+  </si>
+  <si>
+    <t>1.505,0 mg</t>
+  </si>
+  <si>
+    <t>1.867,0 mg</t>
+  </si>
+  <si>
+    <t>2.140,0 mg</t>
+  </si>
+  <si>
+    <t>2.120,0 mg</t>
+  </si>
+  <si>
+    <t>1.290,0 mg</t>
+  </si>
+  <si>
+    <t>252,0 mg</t>
+  </si>
+  <si>
+    <t>1.685,0 mg</t>
+  </si>
+  <si>
+    <t>1.200,0 mg</t>
+  </si>
+  <si>
+    <t>639,0 mg</t>
+  </si>
+  <si>
+    <t>419,0 mg</t>
+  </si>
+  <si>
+    <t>2.594,0 mg</t>
+  </si>
+  <si>
+    <t>3.145,0 mg</t>
+  </si>
+  <si>
+    <t>2.980,0 mg</t>
+  </si>
+  <si>
+    <t>3.170,0 mg</t>
+  </si>
+  <si>
+    <t>3.080,0 mg</t>
+  </si>
+  <si>
+    <t>690,0 mg</t>
+  </si>
+  <si>
+    <t>1.548,0 mg</t>
+  </si>
+  <si>
+    <t>289,0 mg</t>
+  </si>
+  <si>
+    <t>102,0 mg</t>
+  </si>
+  <si>
+    <t>1.490,0 mg</t>
+  </si>
+  <si>
+    <t>1.410,0 mg</t>
+  </si>
+  <si>
+    <t>850,0 mg</t>
+  </si>
+  <si>
+    <t>71,0 mg</t>
+  </si>
+  <si>
+    <t>400,0 mg</t>
+  </si>
+  <si>
+    <t>260,0 mg</t>
+  </si>
+  <si>
+    <t>125,0 mg</t>
+  </si>
+  <si>
+    <t>1.230,0 mg</t>
+  </si>
+  <si>
+    <t>320,0 mg</t>
+  </si>
+  <si>
+    <t>864,0 mg</t>
+  </si>
+  <si>
+    <t>49,0 mg</t>
+  </si>
+  <si>
+    <t>708,0 mg</t>
+  </si>
+  <si>
+    <t>1.110,0 mg</t>
+  </si>
+  <si>
+    <t>900,0 mg</t>
+  </si>
+  <si>
+    <t>177,0 mg</t>
+  </si>
+  <si>
+    <t>893,0 mg</t>
+  </si>
+  <si>
+    <t>916,0 mg</t>
+  </si>
+  <si>
+    <t>398,0 mg</t>
+  </si>
+  <si>
+    <t>2.314,0 mg</t>
+  </si>
+  <si>
+    <t>1.118,0 mg</t>
+  </si>
+  <si>
+    <t>7.187,0 mg</t>
+  </si>
+  <si>
+    <t>8.609,0 mg</t>
+  </si>
+  <si>
+    <t>10.390,0 mg</t>
+  </si>
+  <si>
+    <t>10.270,0 mg</t>
+  </si>
+  <si>
+    <t>7.560,0 mg</t>
+  </si>
+  <si>
+    <t>1.622,0 mg</t>
+  </si>
+  <si>
+    <t>7.948,0 mg</t>
+  </si>
+  <si>
+    <t>5.251,0 mg</t>
+  </si>
+  <si>
+    <t>25,0 mg</t>
+  </si>
+  <si>
+    <t>108,0 mg</t>
+  </si>
+  <si>
+    <t>145,0 mg</t>
+  </si>
+  <si>
+    <t>5,0 mg</t>
+  </si>
+  <si>
+    <t>8,0 mg</t>
+  </si>
+  <si>
+    <t>20,0 mg</t>
+  </si>
+  <si>
+    <t>185,0 mg</t>
+  </si>
+  <si>
+    <t>48,0 mg</t>
+  </si>
+  <si>
+    <t>274,0 mg</t>
+  </si>
+  <si>
+    <t>404,0 mg</t>
+  </si>
+  <si>
+    <t>3.273,0 mg</t>
+  </si>
+  <si>
+    <t>3.091,0 mg</t>
+  </si>
+  <si>
+    <t>1.228,0 mg</t>
+  </si>
+  <si>
+    <t>802,0 mg</t>
+  </si>
+  <si>
+    <t>435,0 mg</t>
+  </si>
+  <si>
+    <t>450,0 mg</t>
+  </si>
+  <si>
+    <t>4.347,0 mg</t>
+  </si>
+  <si>
+    <t>921,0 mg</t>
+  </si>
+  <si>
+    <t>746,0 mg</t>
+  </si>
+  <si>
+    <t>1.637,0 mg</t>
+  </si>
+  <si>
+    <t>483,0 mg</t>
+  </si>
+  <si>
+    <t>1.535,0 mg</t>
+  </si>
+  <si>
+    <t>1.400,0 mg</t>
+  </si>
+  <si>
+    <t>1.320,0 mg</t>
+  </si>
+  <si>
+    <t>800,0 mg</t>
+  </si>
+  <si>
+    <t>1.842,0 mg</t>
+  </si>
+  <si>
+    <t>124,0 mg</t>
+  </si>
+  <si>
+    <t>21.274,0 mg</t>
+  </si>
+  <si>
+    <t>580,0 mg</t>
+  </si>
+  <si>
+    <t>614,0 mg</t>
+  </si>
+  <si>
+    <t>682,0 mg</t>
+  </si>
+  <si>
+    <t>4.950,0 mg</t>
+  </si>
+  <si>
+    <t>3.070,0 mg</t>
+  </si>
+  <si>
+    <t>1.318,0 mg</t>
+  </si>
+  <si>
+    <t>1.790,0 mg</t>
+  </si>
+  <si>
+    <t>31.094,0 mg</t>
+  </si>
+  <si>
+    <t>5.080,0 mg</t>
+  </si>
+  <si>
+    <t>169,0 mg</t>
+  </si>
+  <si>
+    <t>773,0 mg</t>
+  </si>
+  <si>
+    <t>201,0 mg</t>
+  </si>
+  <si>
+    <t>170,0 mg</t>
+  </si>
+  <si>
+    <t>2.157,0 mg</t>
+  </si>
+  <si>
+    <t>35.817,0 mg</t>
+  </si>
+  <si>
+    <t>1.023,0 mg</t>
+  </si>
+  <si>
+    <t>88,0 mg</t>
+  </si>
+  <si>
+    <t>186,0 mg</t>
+  </si>
+  <si>
+    <t>250,0 mg</t>
+  </si>
+  <si>
+    <t>6.307,0 mg</t>
+  </si>
+  <si>
+    <t>279,0 mg</t>
+  </si>
+  <si>
+    <t>160,0 mg</t>
+  </si>
+  <si>
+    <t>536,0 mg</t>
+  </si>
+  <si>
+    <t>14,0 mg</t>
+  </si>
+  <si>
+    <t>163,0 mg</t>
+  </si>
+  <si>
+    <t>93,0 mg</t>
+  </si>
+  <si>
+    <t>3,0 mg</t>
+  </si>
+  <si>
+    <t>107,0 mg</t>
+  </si>
+  <si>
+    <t>127,0 mg</t>
+  </si>
+  <si>
+    <t>1.138,0 mg</t>
+  </si>
+  <si>
+    <t>51,0 mg</t>
+  </si>
+  <si>
+    <t>47,0 mg</t>
+  </si>
+  <si>
+    <t>11,0 mg</t>
+  </si>
+  <si>
+    <t>117,0 mg</t>
+  </si>
+  <si>
+    <t>422,0 mg</t>
+  </si>
+  <si>
+    <t>152,0 mg</t>
+  </si>
+  <si>
+    <t>655,0 mg</t>
+  </si>
+  <si>
+    <t>76,0 mg</t>
+  </si>
+  <si>
+    <t>6.230,0 mg</t>
+  </si>
+  <si>
+    <t>3.397,0 mg</t>
+  </si>
+  <si>
+    <t>466,0 mg</t>
+  </si>
+  <si>
+    <t>1.890,0 mg</t>
+  </si>
+  <si>
+    <t>957,0 mg</t>
+  </si>
+  <si>
+    <t>4.403,0 mg</t>
+  </si>
+  <si>
+    <t>2.417,0 mg</t>
+  </si>
+  <si>
+    <t>142,0 mg</t>
+  </si>
+  <si>
+    <t>64,0 mg</t>
+  </si>
+  <si>
+    <t>4,0 mg</t>
+  </si>
+  <si>
+    <t>7.847,0 mg</t>
+  </si>
+  <si>
+    <t>1.739,0 mg</t>
+  </si>
+  <si>
+    <t>785,0 mg</t>
+  </si>
+  <si>
+    <t>620,0 mg</t>
+  </si>
+  <si>
+    <t>1.250,0 mg</t>
+  </si>
+  <si>
+    <t>837,0 mg</t>
+  </si>
+  <si>
+    <t>187,0 mg</t>
+  </si>
+  <si>
+    <t>7,0 mg</t>
+  </si>
+  <si>
+    <t>417,0 mg</t>
+  </si>
+  <si>
+    <t>91,0 mg</t>
+  </si>
+  <si>
+    <t>37,0 mg</t>
+  </si>
+  <si>
+    <t>14.428,0 mg</t>
+  </si>
+  <si>
+    <t>5.793,0 mg</t>
+  </si>
+  <si>
+    <t>1.343,0 mg</t>
+  </si>
+  <si>
+    <t>3.450,0 mg</t>
+  </si>
+  <si>
+    <t>1.105,0 mg</t>
+  </si>
+  <si>
+    <t>909,0 mg</t>
+  </si>
+  <si>
+    <t>6.725,0 mg</t>
+  </si>
+  <si>
+    <t>3.328,0 mg</t>
+  </si>
+  <si>
+    <t>232,0 mg</t>
+  </si>
+  <si>
+    <t>22,0 mg</t>
+  </si>
+  <si>
+    <t>10,0 mg</t>
+  </si>
+  <si>
+    <t>809,0 mg</t>
+  </si>
+  <si>
+    <t>763,0 mg</t>
+  </si>
+  <si>
+    <t>372,0 mg</t>
+  </si>
+  <si>
+    <t>15,0 mg</t>
+  </si>
+  <si>
+    <t>8.174,0 mg</t>
+  </si>
+  <si>
+    <t>5.603,0 mg</t>
+  </si>
+  <si>
+    <t>1.570,0 mg</t>
+  </si>
+  <si>
+    <t>2.113,0 mg</t>
+  </si>
+  <si>
+    <t>369,0 mg</t>
+  </si>
+  <si>
+    <t>9.520,0 mg</t>
+  </si>
+  <si>
+    <t>4.089,0 mg</t>
+  </si>
+  <si>
+    <t>983,0 mg</t>
+  </si>
+  <si>
+    <t>65,0 mg</t>
+  </si>
+  <si>
+    <t>476,0 mg</t>
+  </si>
+  <si>
+    <t>1.388,0 mg</t>
+  </si>
+  <si>
+    <t>8.221,0 mg</t>
+  </si>
+  <si>
+    <t>6.683,0 mg</t>
+  </si>
+  <si>
+    <t>587,0 mg</t>
+  </si>
+  <si>
+    <t>4.768,0 mg</t>
+  </si>
+  <si>
+    <t>2.190,0 mg</t>
+  </si>
+  <si>
+    <t>453,0 mg</t>
+  </si>
+  <si>
+    <t>10.115,0 mg</t>
+  </si>
+  <si>
+    <t>4.461,0 mg</t>
+  </si>
+  <si>
+    <t>53,0 mg</t>
+  </si>
+  <si>
+    <t>350,0 mg</t>
+  </si>
+  <si>
+    <t>455,0 mg</t>
+  </si>
+  <si>
+    <t>782,0 mg</t>
+  </si>
+  <si>
+    <t>2.902,0 mg</t>
+  </si>
+  <si>
+    <t>2.208,0 mg</t>
+  </si>
+  <si>
+    <t>55,0 mg</t>
+  </si>
+  <si>
+    <t>42.660,0 mg</t>
+  </si>
+  <si>
+    <t>1.507,0 mg</t>
+  </si>
+  <si>
+    <t>23.422,0 mg</t>
+  </si>
+  <si>
+    <t>12.931,0 mg</t>
+  </si>
+  <si>
+    <t>2.712,0 mg</t>
+  </si>
+  <si>
+    <t>11.119,0 mg</t>
+  </si>
+  <si>
+    <t>5.503,0 mg</t>
+  </si>
+  <si>
+    <t>1.277,0 mg</t>
+  </si>
+  <si>
+    <t>59.500,0 mg</t>
+  </si>
+  <si>
+    <t>9.296,0 mg</t>
+  </si>
+  <si>
+    <t>122,0 mg</t>
+  </si>
+  <si>
+    <t>1.078,0 mg</t>
+  </si>
+  <si>
+    <t>699,0 mg</t>
+  </si>
+  <si>
+    <t>948,0 mg</t>
+  </si>
+  <si>
+    <t>1.190,0 mg</t>
+  </si>
+  <si>
+    <t>399,0 mg</t>
+  </si>
+  <si>
+    <t>83,0 mg</t>
+  </si>
+  <si>
+    <t>3.000,0 mg</t>
+  </si>
+  <si>
+    <t>1.904,0 mg</t>
+  </si>
+  <si>
+    <t>257,0 mg</t>
+  </si>
+  <si>
+    <t>396,0 mg</t>
+  </si>
+  <si>
     <t>400,0 µg (= 1.333,3 IE)</t>
-  </si>
-  <si>
-    <t>143,0 µg (= 476,7 IE)</t>
-  </si>
-  <si>
-    <t>7,0 µg (= 23,3 IE)</t>
-  </si>
-  <si>
-    <t>17,0 µg (= 56,7 IE)</t>
-  </si>
-  <si>
-    <t>17.900,0 µg (= 59.666,6 IE)</t>
-  </si>
-  <si>
-    <t>100,0 µg (= 333,3 IE)</t>
-  </si>
-  <si>
-    <t>0,0 µg (= 0,0 IE)</t>
-  </si>
-  <si>
-    <t>22,0 µg (= 73,3 IE)</t>
-  </si>
-  <si>
-    <t>8,0 µg (= 26,7 IE)</t>
-  </si>
-  <si>
-    <t>278,0 µg (= 926,7 IE)</t>
-  </si>
-  <si>
-    <t>20,0 µg (= 66,7 IE)</t>
-  </si>
-  <si>
-    <t>276,0 µg (= 920,0 IE)</t>
-  </si>
-  <si>
-    <t>230,0 µg (= 766,7 IE)</t>
-  </si>
-  <si>
-    <t>2.400,0 µg (= 8.000,0 IE)</t>
-  </si>
-  <si>
-    <t>846,0 µg (= 2.820,0 IE)</t>
-  </si>
-  <si>
-    <t>40,0 µg (= 133,3 IE)</t>
-  </si>
-  <si>
-    <t>10,0 µg (= 33,3 IE)</t>
-  </si>
-  <si>
-    <t>48,0 µg (= 160,0 IE)</t>
-  </si>
-  <si>
-    <t>13,0 µg (= 43,3 IE)</t>
-  </si>
-  <si>
-    <t>44,0 µg (= 14,7 IE)</t>
-  </si>
-  <si>
-    <t>200,0 µg (= 66,7 IE)</t>
-  </si>
-  <si>
-    <t>98,0 µg (= 32,7 IE)</t>
-  </si>
-  <si>
-    <t>130,0 µg (= 43,3 IE)</t>
-  </si>
-  <si>
-    <t>198,0 µg (= 66,0 IE)</t>
-  </si>
-  <si>
-    <t>266,0 µg (= 88,7 IE)</t>
-  </si>
-  <si>
-    <t>562,0 µg (= 187,3 IE)</t>
-  </si>
-  <si>
-    <t>40,0 µg (= 13,3 IE)</t>
-  </si>
-  <si>
-    <t>340,0 µg (= 113,3 IE)</t>
-  </si>
-  <si>
-    <t>100,0 µg (= 33,3 IE)</t>
-  </si>
-  <si>
-    <t>57,0 µg</t>
-  </si>
-  <si>
-    <t>150,0 µg</t>
-  </si>
-  <si>
-    <t>178,0 µg</t>
-  </si>
-  <si>
-    <t>400,0 µg</t>
-  </si>
-  <si>
-    <t>228,0 µg</t>
-  </si>
-  <si>
-    <t>3.085,0 µg</t>
-  </si>
-  <si>
-    <t>360,0 µg</t>
-  </si>
-  <si>
-    <t>28,0 µg</t>
-  </si>
-  <si>
-    <t>170,0 µg</t>
-  </si>
-  <si>
-    <t>120,0 µg</t>
-  </si>
-  <si>
-    <t>310,0 µg</t>
-  </si>
-  <si>
-    <t>650,0 µg</t>
-  </si>
-  <si>
-    <t>800,0 µg</t>
-  </si>
-  <si>
-    <t>1.000,0 µg</t>
-  </si>
-  <si>
-    <t>2.700,0 µg</t>
-  </si>
-  <si>
-    <t>6.466,0 µg</t>
-  </si>
-  <si>
-    <t>14.700,0 µg</t>
-  </si>
-  <si>
-    <t>7.500,0 µg</t>
-  </si>
-  <si>
-    <t>90,0 µg</t>
-  </si>
-  <si>
-    <t>83,0 µg</t>
-  </si>
-  <si>
-    <t>950,0 µg</t>
-  </si>
-  <si>
-    <t>3.733,0 µg</t>
-  </si>
-  <si>
-    <t>1.550,0 µg</t>
-  </si>
-  <si>
-    <t>6.667,0 µg</t>
-  </si>
-  <si>
-    <t>10.066,0 µg</t>
-  </si>
-  <si>
-    <t>19.867,0 µg</t>
-  </si>
-  <si>
-    <t>12.000,0 µg</t>
-  </si>
-  <si>
-    <t>4.167,0 µg</t>
-  </si>
-  <si>
-    <t>823,0 µg</t>
-  </si>
-  <si>
-    <t>3.167,0 µg</t>
-  </si>
-  <si>
-    <t>3.100,0 µg</t>
-  </si>
-  <si>
-    <t>230,0 µg</t>
-  </si>
-  <si>
-    <t>300,0 µg</t>
-  </si>
-  <si>
-    <t>1.290,0 µg</t>
-  </si>
-  <si>
-    <t>1.100,0 µg</t>
-  </si>
-  <si>
-    <t>498,0 µg</t>
-  </si>
-  <si>
-    <t>7.300,0 µg</t>
-  </si>
-  <si>
-    <t>460,0 µg</t>
-  </si>
-  <si>
-    <t>1.090,0 µg</t>
-  </si>
-  <si>
-    <t>370,0 µg</t>
-  </si>
-  <si>
-    <t>820,0 µg</t>
-  </si>
-  <si>
-    <t>1.600,0 µg</t>
-  </si>
-  <si>
-    <t>160,0 µg</t>
-  </si>
-  <si>
-    <t>140,0 µg</t>
-  </si>
-  <si>
-    <t>158,0 µg</t>
-  </si>
-  <si>
-    <t>961,0 µg</t>
-  </si>
-  <si>
-    <t>630,0 µg</t>
-  </si>
-  <si>
-    <t>98,0 µg</t>
-  </si>
-  <si>
-    <t>50,0 µg</t>
-  </si>
-  <si>
-    <t>870,0 µg</t>
-  </si>
-  <si>
-    <t>5,5 µg</t>
-  </si>
-  <si>
-    <t>0,5 µg</t>
-  </si>
-  <si>
-    <t>20,0 µg</t>
-  </si>
-  <si>
-    <t>2,5 µg</t>
-  </si>
-  <si>
-    <t>100,0 µg</t>
-  </si>
-  <si>
-    <t>4,0 µg</t>
-  </si>
-  <si>
-    <t>3,6 µg</t>
-  </si>
-  <si>
-    <t>19,0 µg</t>
-  </si>
-  <si>
-    <t>25,0 µg</t>
-  </si>
-  <si>
-    <t>30,0 µg</t>
-  </si>
-  <si>
-    <t>38,0 µg</t>
-  </si>
-  <si>
-    <t>2,0 µg</t>
-  </si>
-  <si>
-    <t>592,0 µg</t>
-  </si>
-  <si>
-    <t>1,0 µg</t>
-  </si>
-  <si>
-    <t>87,0 µg</t>
-  </si>
-  <si>
-    <t>5,0 µg</t>
-  </si>
-  <si>
-    <t>77,0 µg</t>
-  </si>
-  <si>
-    <t>65,0 µg</t>
-  </si>
-  <si>
-    <t>0,0 µg</t>
-  </si>
-  <si>
-    <t>4,4 µg</t>
-  </si>
-  <si>
-    <t>9,0 µg</t>
-  </si>
-  <si>
-    <t>12.000,0 µg (= 240,0 IE)</t>
-  </si>
-  <si>
-    <t>333.000,0 µg (= 6.660,0 IE)</t>
-  </si>
-  <si>
-    <t>115.000,0 µg (= 2.300,0 IE)</t>
-  </si>
-  <si>
-    <t>32.000,0 µg (= 640,0 IE)</t>
-  </si>
-  <si>
-    <t>1.000,0 µg (= 20,0 IE)</t>
-  </si>
-  <si>
-    <t>2.600,0 µg (= 52,0 IE)</t>
-  </si>
-  <si>
-    <t>1,7 µg (= 68,0 IE)</t>
-  </si>
-  <si>
-    <t>4,0 µg (= 160,0 IE)</t>
-  </si>
-  <si>
-    <t>2,9 µg (= 116,0 IE)</t>
-  </si>
-  <si>
-    <t>270,0 µg (= 0,4 IE)</t>
-  </si>
-  <si>
-    <t>800,0 µg (= 1,2 IE)</t>
-  </si>
-  <si>
-    <t>621,0 µg (= 0,9 IE)</t>
-  </si>
-  <si>
-    <t>680,0 µg (= 1,0 IE)</t>
-  </si>
-  <si>
-    <t>398,0 µg (= 0,6 IE)</t>
-  </si>
-  <si>
-    <t>750,0 µg (= 1,1 IE)</t>
-  </si>
-  <si>
-    <t>1.250,0 µg (= 1,9 IE)</t>
-  </si>
-  <si>
-    <t>40,0 µg (= 0,1 IE)</t>
-  </si>
-  <si>
-    <t>6.040,0 µg (= 9,0 IE)</t>
-  </si>
-  <si>
-    <t>2.022,0 µg (= 3,0 IE)</t>
-  </si>
-  <si>
-    <t>10,0 µg</t>
-  </si>
-  <si>
-    <t>121,0 µg</t>
-  </si>
-  <si>
-    <t>11,0 µg</t>
-  </si>
-  <si>
-    <t>75,0 µg</t>
-  </si>
-  <si>
-    <t>63,0 µg</t>
-  </si>
-  <si>
-    <t>48,0 µg</t>
-  </si>
-  <si>
-    <t>1,0 mg</t>
-  </si>
-  <si>
-    <t>80,0 mg</t>
-  </si>
-  <si>
-    <t>19,0 mg</t>
-  </si>
-  <si>
-    <t>17,0 mg</t>
-  </si>
-  <si>
-    <t>60,0 mg</t>
-  </si>
-  <si>
-    <t>116,0 mg</t>
-  </si>
-  <si>
-    <t>2,0 mg</t>
-  </si>
-  <si>
-    <t>50,0 mg</t>
-  </si>
-  <si>
-    <t>144,0 mg</t>
-  </si>
-  <si>
-    <t>393,0 mg</t>
-  </si>
-  <si>
-    <t>475,0 mg</t>
-  </si>
-  <si>
-    <t>373,0 mg</t>
-  </si>
-  <si>
-    <t>1.920,0 mg</t>
-  </si>
-  <si>
-    <t>310,0 mg</t>
-  </si>
-  <si>
-    <t>340,0 mg</t>
-  </si>
-  <si>
-    <t>380,0 mg</t>
-  </si>
-  <si>
-    <t>382,0 mg</t>
-  </si>
-  <si>
-    <t>150,0 mg</t>
-  </si>
-  <si>
-    <t>544,0 mg</t>
-  </si>
-  <si>
-    <t>147,0 mg</t>
-  </si>
-  <si>
-    <t>9,0 mg</t>
-  </si>
-  <si>
-    <t>713,0 mg</t>
-  </si>
-  <si>
-    <t>105,0 mg</t>
-  </si>
-  <si>
-    <t>114,0 mg</t>
-  </si>
-  <si>
-    <t>6,0 mg</t>
-  </si>
-  <si>
-    <t>12,0 mg</t>
-  </si>
-  <si>
-    <t>16,0 mg</t>
-  </si>
-  <si>
-    <t>120,0 mg</t>
-  </si>
-  <si>
-    <t>87,0 mg</t>
-  </si>
-  <si>
-    <t>56,0 mg</t>
-  </si>
-  <si>
-    <t>36,0 mg</t>
-  </si>
-  <si>
-    <t>24,0 mg</t>
-  </si>
-  <si>
-    <t>414,0 mg</t>
-  </si>
-  <si>
-    <t>21,0 mg</t>
-  </si>
-  <si>
-    <t>30,0 mg</t>
-  </si>
-  <si>
-    <t>121,0 mg</t>
-  </si>
-  <si>
-    <t>130,0 mg</t>
-  </si>
-  <si>
-    <t>28,0 mg</t>
-  </si>
-  <si>
-    <t>138,0 mg</t>
-  </si>
-  <si>
-    <t>82,0 mg</t>
-  </si>
-  <si>
-    <t>656,0 mg</t>
-  </si>
-  <si>
-    <t>168,0 mg</t>
-  </si>
-  <si>
-    <t>351,0 mg</t>
-  </si>
-  <si>
-    <t>244,0 mg</t>
-  </si>
-  <si>
-    <t>325,0 mg</t>
-  </si>
-  <si>
-    <t>100,0 mg</t>
-  </si>
-  <si>
-    <t>410,0 mg</t>
-  </si>
-  <si>
-    <t>216,0 mg</t>
-  </si>
-  <si>
-    <t>109,0 mg</t>
-  </si>
-  <si>
-    <t>78,0 mg</t>
-  </si>
-  <si>
-    <t>32,0 mg</t>
-  </si>
-  <si>
-    <t>68,0 mg</t>
-  </si>
-  <si>
-    <t>143,0 mg</t>
-  </si>
-  <si>
-    <t>61,0 mg</t>
-  </si>
-  <si>
-    <t>23,0 mg</t>
-  </si>
-  <si>
-    <t>180,0 mg</t>
-  </si>
-  <si>
-    <t>13,0 mg</t>
-  </si>
-  <si>
-    <t>40,0 mg</t>
-  </si>
-  <si>
-    <t>200,0 mg</t>
-  </si>
-  <si>
-    <t>240,0 mg</t>
-  </si>
-  <si>
-    <t>190,0 mg</t>
-  </si>
-  <si>
-    <t>140,0 mg</t>
-  </si>
-  <si>
-    <t>550,0 µg</t>
-  </si>
-  <si>
-    <t>4.120,0 µg</t>
-  </si>
-  <si>
-    <t>1.300,0 µg</t>
-  </si>
-  <si>
-    <t>12.500,0 µg</t>
-  </si>
-  <si>
-    <t>1.920,0 µg</t>
-  </si>
-  <si>
-    <t>6.895,0 µg</t>
-  </si>
-  <si>
-    <t>1.174,0 µg</t>
-  </si>
-  <si>
-    <t>4.437,0 µg</t>
-  </si>
-  <si>
-    <t>2.500,0 µg</t>
-  </si>
-  <si>
-    <t>2.100,0 µg</t>
-  </si>
-  <si>
-    <t>220,0 µg</t>
-  </si>
-  <si>
-    <t>1.020,0 µg</t>
-  </si>
-  <si>
-    <t>605,0 µg</t>
-  </si>
-  <si>
-    <t>5.727,0 µg</t>
-  </si>
-  <si>
-    <t>3.731,0 µg</t>
-  </si>
-  <si>
-    <t>4.816,0 µg</t>
-  </si>
-  <si>
-    <t>519,0 µg</t>
-  </si>
-  <si>
-    <t>3.642,0 µg</t>
-  </si>
-  <si>
-    <t>1.350,0 µg</t>
-  </si>
-  <si>
-    <t>130,0 µg</t>
-  </si>
-  <si>
-    <t>240,0 µg</t>
-  </si>
-  <si>
-    <t>126,0 µg</t>
-  </si>
-  <si>
-    <t>3.807,0 µg</t>
-  </si>
-  <si>
-    <t>3.195,0 µg</t>
-  </si>
-  <si>
-    <t>114,0 µg</t>
-  </si>
-  <si>
-    <t>410,0 µg</t>
-  </si>
-  <si>
-    <t>12,0 µg</t>
-  </si>
-  <si>
-    <t>880,0 µg</t>
-  </si>
-  <si>
-    <t>530,0 µg</t>
-  </si>
-  <si>
-    <t>1.260,0 µg</t>
-  </si>
-  <si>
-    <t>260,0 µg</t>
-  </si>
-  <si>
-    <t>3.000,0 µg</t>
-  </si>
-  <si>
-    <t>338,0 µg</t>
-  </si>
-  <si>
-    <t>31,0 µg</t>
-  </si>
-  <si>
-    <t>4.934,0 µg</t>
-  </si>
-  <si>
-    <t>1.970,0 µg</t>
-  </si>
-  <si>
-    <t>80,0 µg</t>
-  </si>
-  <si>
-    <t>53,0 µg</t>
-  </si>
-  <si>
-    <t>13,0 µg</t>
-  </si>
-  <si>
-    <t>680,0 µg</t>
-  </si>
-  <si>
-    <t>110,0 µg</t>
-  </si>
-  <si>
-    <t>2,8 µg</t>
-  </si>
-  <si>
-    <t>3,0 µg</t>
-  </si>
-  <si>
-    <t>15,0 µg</t>
-  </si>
-  <si>
-    <t>0,3 µg</t>
-  </si>
-  <si>
-    <t>14,0 µg</t>
-  </si>
-  <si>
-    <t>49,8 µg</t>
-  </si>
-  <si>
-    <t>0,8 µg</t>
-  </si>
-  <si>
-    <t>7,5 µg</t>
-  </si>
-  <si>
-    <t>0,0 mg</t>
-  </si>
-  <si>
-    <t>3.786,0 mg</t>
-  </si>
-  <si>
-    <t>246,0 mg</t>
-  </si>
-  <si>
-    <t>1.003,0 mg</t>
-  </si>
-  <si>
-    <t>700,0 mg</t>
-  </si>
-  <si>
-    <t>3.636,0 mg</t>
-  </si>
-  <si>
-    <t>284,0 mg</t>
-  </si>
-  <si>
-    <t>904,0 mg</t>
-  </si>
-  <si>
-    <t>7.422,0 mg</t>
-  </si>
-  <si>
-    <t>530,0 mg</t>
-  </si>
-  <si>
-    <t>1.907,0 mg</t>
-  </si>
-  <si>
-    <t>11.016,0 mg</t>
-  </si>
-  <si>
-    <t>317,0 mg</t>
-  </si>
-  <si>
-    <t>477,0 mg</t>
-  </si>
-  <si>
-    <t>8.672,0 mg</t>
-  </si>
-  <si>
-    <t>710,0 mg</t>
-  </si>
-  <si>
-    <t>6.890,0 mg</t>
-  </si>
-  <si>
-    <t>4.100,0 mg</t>
-  </si>
-  <si>
-    <t>770,0 mg</t>
-  </si>
-  <si>
-    <t>596,0 mg</t>
-  </si>
-  <si>
-    <t>457,0 mg</t>
-  </si>
-  <si>
-    <t>5.300,0 mg</t>
-  </si>
-  <si>
-    <t>2.952,0 mg</t>
-  </si>
-  <si>
-    <t>462,0 mg</t>
-  </si>
-  <si>
-    <t>126,0 mg</t>
-  </si>
-  <si>
-    <t>2.168,0 mg</t>
-  </si>
-  <si>
-    <t>57.992,0 mg</t>
-  </si>
-  <si>
-    <t>3.710,0 mg</t>
-  </si>
-  <si>
-    <t>38,0 mg</t>
-  </si>
-  <si>
-    <t>247,0 mg</t>
-  </si>
-  <si>
-    <t>129,0 mg</t>
-  </si>
-  <si>
-    <t>554,0 mg</t>
-  </si>
-  <si>
-    <t>1.022,0 mg</t>
-  </si>
-  <si>
-    <t>1.150,0 mg</t>
-  </si>
-  <si>
-    <t>1.090,0 mg</t>
-  </si>
-  <si>
-    <t>610,0 mg</t>
-  </si>
-  <si>
-    <t>194,0 mg</t>
-  </si>
-  <si>
-    <t>547,0 mg</t>
-  </si>
-  <si>
-    <t>787,0 mg</t>
-  </si>
-  <si>
-    <t>84,0 mg</t>
-  </si>
-  <si>
-    <t>474,0 mg</t>
-  </si>
-  <si>
-    <t>158,0 mg</t>
-  </si>
-  <si>
-    <t>911,0 mg</t>
-  </si>
-  <si>
-    <t>1.592,0 mg</t>
-  </si>
-  <si>
-    <t>1.990,0 mg</t>
-  </si>
-  <si>
-    <t>1.800,0 mg</t>
-  </si>
-  <si>
-    <t>1.130,0 mg</t>
-  </si>
-  <si>
-    <t>321,0 mg</t>
-  </si>
-  <si>
-    <t>950,0 mg</t>
-  </si>
-  <si>
-    <t>1.082,0 mg</t>
-  </si>
-  <si>
-    <t>58,0 mg</t>
-  </si>
-  <si>
-    <t>415,0 mg</t>
-  </si>
-  <si>
-    <t>155,0 mg</t>
-  </si>
-  <si>
-    <t>594,0 mg</t>
-  </si>
-  <si>
-    <t>1.710,0 mg</t>
-  </si>
-  <si>
-    <t>1.750,0 mg</t>
-  </si>
-  <si>
-    <t>1.730,0 mg</t>
-  </si>
-  <si>
-    <t>500,0 mg</t>
-  </si>
-  <si>
-    <t>241,0 mg</t>
-  </si>
-  <si>
-    <t>302,0 mg</t>
-  </si>
-  <si>
-    <t>735,0 mg</t>
-  </si>
-  <si>
-    <t>119,0 mg</t>
-  </si>
-  <si>
-    <t>43,0 mg</t>
-  </si>
-  <si>
-    <t>238,0 mg</t>
-  </si>
-  <si>
-    <t>491,0 mg</t>
-  </si>
-  <si>
-    <t>600,0 mg</t>
-  </si>
-  <si>
-    <t>640,0 mg</t>
-  </si>
-  <si>
-    <t>173,0 mg</t>
-  </si>
-  <si>
-    <t>387,0 mg</t>
-  </si>
-  <si>
-    <t>67,0 mg</t>
-  </si>
-  <si>
-    <t>33,0 mg</t>
-  </si>
-  <si>
-    <t>280,0 mg</t>
-  </si>
-  <si>
-    <t>230,0 mg</t>
-  </si>
-  <si>
-    <t>390,0 mg</t>
-  </si>
-  <si>
-    <t>27,0 mg</t>
-  </si>
-  <si>
-    <t>202,0 mg</t>
-  </si>
-  <si>
-    <t>35,0 mg</t>
-  </si>
-  <si>
-    <t>285,0 mg</t>
-  </si>
-  <si>
-    <t>653,0 mg</t>
-  </si>
-  <si>
-    <t>806,0 mg</t>
-  </si>
-  <si>
-    <t>1.170,0 mg</t>
-  </si>
-  <si>
-    <t>840,0 mg</t>
-  </si>
-  <si>
-    <t>780,0 mg</t>
-  </si>
-  <si>
-    <t>156,0 mg</t>
-  </si>
-  <si>
-    <t>533,0 mg</t>
-  </si>
-  <si>
-    <t>748,0 mg</t>
-  </si>
-  <si>
-    <t>234,0 mg</t>
-  </si>
-  <si>
-    <t>69,0 mg</t>
-  </si>
-  <si>
-    <t>436,0 mg</t>
-  </si>
-  <si>
-    <t>668,0 mg</t>
-  </si>
-  <si>
-    <t>570,0 mg</t>
-  </si>
-  <si>
-    <t>461,0 mg</t>
-  </si>
-  <si>
-    <t>529,0 mg</t>
-  </si>
-  <si>
-    <t>258,0 mg</t>
-  </si>
-  <si>
-    <t>865,0 mg</t>
-  </si>
-  <si>
-    <t>1.010,0 mg</t>
-  </si>
-  <si>
-    <t>970,0 mg</t>
-  </si>
-  <si>
-    <t>139,0 mg</t>
-  </si>
-  <si>
-    <t>418,0 mg</t>
-  </si>
-  <si>
-    <t>658,0 mg</t>
-  </si>
-  <si>
-    <t>18,0 mg</t>
-  </si>
-  <si>
-    <t>176,0 mg</t>
-  </si>
-  <si>
-    <t>270,0 mg</t>
-  </si>
-  <si>
-    <t>44,0 mg</t>
-  </si>
-  <si>
-    <t>181,0 mg</t>
-  </si>
-  <si>
-    <t>292,0 mg</t>
-  </si>
-  <si>
-    <t>871,0 mg</t>
-  </si>
-  <si>
-    <t>1.120,0 mg</t>
-  </si>
-  <si>
-    <t>1.470,0 mg</t>
-  </si>
-  <si>
-    <t>1.210,0 mg</t>
-  </si>
-  <si>
-    <t>810,0 mg</t>
-  </si>
-  <si>
-    <t>211,0 mg</t>
-  </si>
-  <si>
-    <t>634,0 mg</t>
-  </si>
-  <si>
-    <t>1.045,0 mg</t>
-  </si>
-  <si>
-    <t>54,0 mg</t>
-  </si>
-  <si>
-    <t>359,0 mg</t>
-  </si>
-  <si>
-    <t>189,0 mg</t>
-  </si>
-  <si>
-    <t>1.069,0 mg</t>
-  </si>
-  <si>
-    <t>1.278,0 mg</t>
-  </si>
-  <si>
-    <t>1.300,0 mg</t>
-  </si>
-  <si>
-    <t>1.160,0 mg</t>
-  </si>
-  <si>
-    <t>870,0 mg</t>
-  </si>
-  <si>
-    <t>112,0 mg</t>
-  </si>
-  <si>
-    <t>1.742,0 mg</t>
-  </si>
-  <si>
-    <t>826,0 mg</t>
-  </si>
-  <si>
-    <t>77,0 mg</t>
-  </si>
-  <si>
-    <t>101,0 mg</t>
-  </si>
-  <si>
-    <t>660,0 mg</t>
-  </si>
-  <si>
-    <t>300,0 mg</t>
-  </si>
-  <si>
-    <t>288,0 mg</t>
-  </si>
-  <si>
-    <t>492,0 mg</t>
-  </si>
-  <si>
-    <t>3.027,0 mg</t>
-  </si>
-  <si>
-    <t>1.258,0 mg</t>
-  </si>
-  <si>
-    <t>6.713,0 mg</t>
-  </si>
-  <si>
-    <t>10.652,0 mg</t>
-  </si>
-  <si>
-    <t>12.460,0 mg</t>
-  </si>
-  <si>
-    <t>11.420,0 mg</t>
-  </si>
-  <si>
-    <t>6.920,0 mg</t>
-  </si>
-  <si>
-    <t>1.761,0 mg</t>
-  </si>
-  <si>
-    <t>6.380,0 mg</t>
-  </si>
-  <si>
-    <t>7.520,0 mg</t>
-  </si>
-  <si>
-    <t>46,0 mg</t>
-  </si>
-  <si>
-    <t>693,0 mg</t>
-  </si>
-  <si>
-    <t>1.218,0 mg</t>
-  </si>
-  <si>
-    <t>1.440,0 mg</t>
-  </si>
-  <si>
-    <t>1.880,0 mg</t>
-  </si>
-  <si>
-    <t>790,0 mg</t>
-  </si>
-  <si>
-    <t>720,0 mg</t>
-  </si>
-  <si>
-    <t>115,0 mg</t>
-  </si>
-  <si>
-    <t>535,0 mg</t>
-  </si>
-  <si>
-    <t>1.505,0 mg</t>
-  </si>
-  <si>
-    <t>1.867,0 mg</t>
-  </si>
-  <si>
-    <t>2.140,0 mg</t>
-  </si>
-  <si>
-    <t>2.120,0 mg</t>
-  </si>
-  <si>
-    <t>1.290,0 mg</t>
-  </si>
-  <si>
-    <t>252,0 mg</t>
-  </si>
-  <si>
-    <t>1.685,0 mg</t>
-  </si>
-  <si>
-    <t>1.200,0 mg</t>
-  </si>
-  <si>
-    <t>639,0 mg</t>
-  </si>
-  <si>
-    <t>419,0 mg</t>
-  </si>
-  <si>
-    <t>2.594,0 mg</t>
-  </si>
-  <si>
-    <t>3.145,0 mg</t>
-  </si>
-  <si>
-    <t>2.980,0 mg</t>
-  </si>
-  <si>
-    <t>3.170,0 mg</t>
-  </si>
-  <si>
-    <t>3.080,0 mg</t>
-  </si>
-  <si>
-    <t>690,0 mg</t>
-  </si>
-  <si>
-    <t>1.548,0 mg</t>
-  </si>
-  <si>
-    <t>289,0 mg</t>
-  </si>
-  <si>
-    <t>102,0 mg</t>
-  </si>
-  <si>
-    <t>1.490,0 mg</t>
-  </si>
-  <si>
-    <t>1.410,0 mg</t>
-  </si>
-  <si>
-    <t>850,0 mg</t>
-  </si>
-  <si>
-    <t>71,0 mg</t>
-  </si>
-  <si>
-    <t>400,0 mg</t>
-  </si>
-  <si>
-    <t>260,0 mg</t>
-  </si>
-  <si>
-    <t>125,0 mg</t>
-  </si>
-  <si>
-    <t>1.230,0 mg</t>
-  </si>
-  <si>
-    <t>320,0 mg</t>
-  </si>
-  <si>
-    <t>864,0 mg</t>
-  </si>
-  <si>
-    <t>49,0 mg</t>
-  </si>
-  <si>
-    <t>708,0 mg</t>
-  </si>
-  <si>
-    <t>1.110,0 mg</t>
-  </si>
-  <si>
-    <t>900,0 mg</t>
-  </si>
-  <si>
-    <t>177,0 mg</t>
-  </si>
-  <si>
-    <t>893,0 mg</t>
-  </si>
-  <si>
-    <t>916,0 mg</t>
-  </si>
-  <si>
-    <t>398,0 mg</t>
-  </si>
-  <si>
-    <t>2.314,0 mg</t>
-  </si>
-  <si>
-    <t>1.118,0 mg</t>
-  </si>
-  <si>
-    <t>7.187,0 mg</t>
-  </si>
-  <si>
-    <t>8.609,0 mg</t>
-  </si>
-  <si>
-    <t>10.390,0 mg</t>
-  </si>
-  <si>
-    <t>10.270,0 mg</t>
-  </si>
-  <si>
-    <t>7.560,0 mg</t>
-  </si>
-  <si>
-    <t>1.622,0 mg</t>
-  </si>
-  <si>
-    <t>7.948,0 mg</t>
-  </si>
-  <si>
-    <t>5.251,0 mg</t>
-  </si>
-  <si>
-    <t>25,0 mg</t>
-  </si>
-  <si>
-    <t>108,0 mg</t>
-  </si>
-  <si>
-    <t>145,0 mg</t>
-  </si>
-  <si>
-    <t>5,0 mg</t>
-  </si>
-  <si>
-    <t>8,0 mg</t>
-  </si>
-  <si>
-    <t>20,0 mg</t>
-  </si>
-  <si>
-    <t>185,0 mg</t>
-  </si>
-  <si>
-    <t>48,0 mg</t>
-  </si>
-  <si>
-    <t>274,0 mg</t>
-  </si>
-  <si>
-    <t>404,0 mg</t>
-  </si>
-  <si>
-    <t>3.273,0 mg</t>
-  </si>
-  <si>
-    <t>3.091,0 mg</t>
-  </si>
-  <si>
-    <t>1.228,0 mg</t>
-  </si>
-  <si>
-    <t>802,0 mg</t>
-  </si>
-  <si>
-    <t>435,0 mg</t>
-  </si>
-  <si>
-    <t>450,0 mg</t>
-  </si>
-  <si>
-    <t>4.347,0 mg</t>
-  </si>
-  <si>
-    <t>921,0 mg</t>
-  </si>
-  <si>
-    <t>746,0 mg</t>
-  </si>
-  <si>
-    <t>1.637,0 mg</t>
-  </si>
-  <si>
-    <t>483,0 mg</t>
-  </si>
-  <si>
-    <t>1.535,0 mg</t>
-  </si>
-  <si>
-    <t>1.400,0 mg</t>
-  </si>
-  <si>
-    <t>1.320,0 mg</t>
-  </si>
-  <si>
-    <t>800,0 mg</t>
-  </si>
-  <si>
-    <t>1.842,0 mg</t>
-  </si>
-  <si>
-    <t>124,0 mg</t>
-  </si>
-  <si>
-    <t>21.274,0 mg</t>
-  </si>
-  <si>
-    <t>580,0 mg</t>
-  </si>
-  <si>
-    <t>614,0 mg</t>
-  </si>
-  <si>
-    <t>682,0 mg</t>
-  </si>
-  <si>
-    <t>4.950,0 mg</t>
-  </si>
-  <si>
-    <t>3.070,0 mg</t>
-  </si>
-  <si>
-    <t>1.318,0 mg</t>
-  </si>
-  <si>
-    <t>1.790,0 mg</t>
-  </si>
-  <si>
-    <t>31.094,0 mg</t>
-  </si>
-  <si>
-    <t>5.080,0 mg</t>
-  </si>
-  <si>
-    <t>169,0 mg</t>
-  </si>
-  <si>
-    <t>773,0 mg</t>
-  </si>
-  <si>
-    <t>201,0 mg</t>
-  </si>
-  <si>
-    <t>170,0 mg</t>
-  </si>
-  <si>
-    <t>2.157,0 mg</t>
-  </si>
-  <si>
-    <t>35.817,0 mg</t>
-  </si>
-  <si>
-    <t>1.023,0 mg</t>
-  </si>
-  <si>
-    <t>88,0 mg</t>
-  </si>
-  <si>
-    <t>186,0 mg</t>
-  </si>
-  <si>
-    <t>250,0 mg</t>
-  </si>
-  <si>
-    <t>6.307,0 mg</t>
-  </si>
-  <si>
-    <t>279,0 mg</t>
-  </si>
-  <si>
-    <t>160,0 mg</t>
-  </si>
-  <si>
-    <t>536,0 mg</t>
-  </si>
-  <si>
-    <t>14,0 mg</t>
-  </si>
-  <si>
-    <t>163,0 mg</t>
-  </si>
-  <si>
-    <t>93,0 mg</t>
-  </si>
-  <si>
-    <t>3,0 mg</t>
-  </si>
-  <si>
-    <t>107,0 mg</t>
-  </si>
-  <si>
-    <t>127,0 mg</t>
-  </si>
-  <si>
-    <t>1.138,0 mg</t>
-  </si>
-  <si>
-    <t>51,0 mg</t>
-  </si>
-  <si>
-    <t>47,0 mg</t>
-  </si>
-  <si>
-    <t>11,0 mg</t>
-  </si>
-  <si>
-    <t>117,0 mg</t>
-  </si>
-  <si>
-    <t>422,0 mg</t>
-  </si>
-  <si>
-    <t>152,0 mg</t>
-  </si>
-  <si>
-    <t>655,0 mg</t>
-  </si>
-  <si>
-    <t>76,0 mg</t>
-  </si>
-  <si>
-    <t>6.230,0 mg</t>
-  </si>
-  <si>
-    <t>3.397,0 mg</t>
-  </si>
-  <si>
-    <t>466,0 mg</t>
-  </si>
-  <si>
-    <t>1.890,0 mg</t>
-  </si>
-  <si>
-    <t>957,0 mg</t>
-  </si>
-  <si>
-    <t>4.403,0 mg</t>
-  </si>
-  <si>
-    <t>2.417,0 mg</t>
-  </si>
-  <si>
-    <t>142,0 mg</t>
-  </si>
-  <si>
-    <t>64,0 mg</t>
-  </si>
-  <si>
-    <t>4,0 mg</t>
-  </si>
-  <si>
-    <t>7.847,0 mg</t>
-  </si>
-  <si>
-    <t>1.739,0 mg</t>
-  </si>
-  <si>
-    <t>785,0 mg</t>
-  </si>
-  <si>
-    <t>620,0 mg</t>
-  </si>
-  <si>
-    <t>1.250,0 mg</t>
-  </si>
-  <si>
-    <t>837,0 mg</t>
-  </si>
-  <si>
-    <t>187,0 mg</t>
-  </si>
-  <si>
-    <t>7,0 mg</t>
-  </si>
-  <si>
-    <t>417,0 mg</t>
-  </si>
-  <si>
-    <t>91,0 mg</t>
-  </si>
-  <si>
-    <t>37,0 mg</t>
-  </si>
-  <si>
-    <t>14.428,0 mg</t>
-  </si>
-  <si>
-    <t>5.793,0 mg</t>
-  </si>
-  <si>
-    <t>1.343,0 mg</t>
-  </si>
-  <si>
-    <t>3.450,0 mg</t>
-  </si>
-  <si>
-    <t>1.105,0 mg</t>
-  </si>
-  <si>
-    <t>909,0 mg</t>
-  </si>
-  <si>
-    <t>6.725,0 mg</t>
-  </si>
-  <si>
-    <t>3.328,0 mg</t>
-  </si>
-  <si>
-    <t>232,0 mg</t>
-  </si>
-  <si>
-    <t>22,0 mg</t>
-  </si>
-  <si>
-    <t>10,0 mg</t>
-  </si>
-  <si>
-    <t>809,0 mg</t>
-  </si>
-  <si>
-    <t>763,0 mg</t>
-  </si>
-  <si>
-    <t>372,0 mg</t>
-  </si>
-  <si>
-    <t>15,0 mg</t>
-  </si>
-  <si>
-    <t>8.174,0 mg</t>
-  </si>
-  <si>
-    <t>5.603,0 mg</t>
-  </si>
-  <si>
-    <t>1.570,0 mg</t>
-  </si>
-  <si>
-    <t>2.113,0 mg</t>
-  </si>
-  <si>
-    <t>369,0 mg</t>
-  </si>
-  <si>
-    <t>9.520,0 mg</t>
-  </si>
-  <si>
-    <t>4.089,0 mg</t>
-  </si>
-  <si>
-    <t>983,0 mg</t>
-  </si>
-  <si>
-    <t>65,0 mg</t>
-  </si>
-  <si>
-    <t>476,0 mg</t>
-  </si>
-  <si>
-    <t>1.388,0 mg</t>
-  </si>
-  <si>
-    <t>8.221,0 mg</t>
-  </si>
-  <si>
-    <t>6.683,0 mg</t>
-  </si>
-  <si>
-    <t>587,0 mg</t>
-  </si>
-  <si>
-    <t>4.768,0 mg</t>
-  </si>
-  <si>
-    <t>2.190,0 mg</t>
-  </si>
-  <si>
-    <t>453,0 mg</t>
-  </si>
-  <si>
-    <t>10.115,0 mg</t>
-  </si>
-  <si>
-    <t>4.461,0 mg</t>
-  </si>
-  <si>
-    <t>53,0 mg</t>
-  </si>
-  <si>
-    <t>350,0 mg</t>
-  </si>
-  <si>
-    <t>455,0 mg</t>
-  </si>
-  <si>
-    <t>782,0 mg</t>
-  </si>
-  <si>
-    <t>2.902,0 mg</t>
-  </si>
-  <si>
-    <t>2.208,0 mg</t>
-  </si>
-  <si>
-    <t>55,0 mg</t>
-  </si>
-  <si>
-    <t>42.660,0 mg</t>
-  </si>
-  <si>
-    <t>1.507,0 mg</t>
-  </si>
-  <si>
-    <t>23.422,0 mg</t>
-  </si>
-  <si>
-    <t>12.931,0 mg</t>
-  </si>
-  <si>
-    <t>2.712,0 mg</t>
-  </si>
-  <si>
-    <t>11.119,0 mg</t>
-  </si>
-  <si>
-    <t>5.503,0 mg</t>
-  </si>
-  <si>
-    <t>1.277,0 mg</t>
-  </si>
-  <si>
-    <t>59.500,0 mg</t>
-  </si>
-  <si>
-    <t>9.296,0 mg</t>
-  </si>
-  <si>
-    <t>122,0 mg</t>
-  </si>
-  <si>
-    <t>1.078,0 mg</t>
-  </si>
-  <si>
-    <t>699,0 mg</t>
-  </si>
-  <si>
-    <t>948,0 mg</t>
-  </si>
-  <si>
-    <t>1.190,0 mg</t>
-  </si>
-  <si>
-    <t>399,0 mg</t>
-  </si>
-  <si>
-    <t>83,0 mg</t>
-  </si>
-  <si>
-    <t>3.000,0 mg</t>
-  </si>
-  <si>
-    <t>1.904,0 mg</t>
-  </si>
-  <si>
-    <t>257,0 mg</t>
-  </si>
-  <si>
-    <t>396,0 mg</t>
   </si>
 </sst>
 </file>
@@ -2592,6 +2592,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2917,12 +2921,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="17" max="29" width="24.21875" customWidth="1"/>
     <col min="30" max="32" width="17.33203125" customWidth="1"/>
   </cols>
@@ -3384,358 +3389,358 @@
         <v>244</v>
       </c>
       <c r="R2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AD2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AI2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AJ2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AK2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>472</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>488</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>491</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>491</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>502</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>502</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>508</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>519</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>530</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>389</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>375</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>402</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>508</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>580</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>530</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>594</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>605</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>610</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>621</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>628</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>391</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>542</v>
+      </c>
+      <c r="CB2" t="s">
         <v>426</v>
       </c>
-      <c r="AN2" t="s">
-        <v>432</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>460</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>481</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>481</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>481</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>482</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>486</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>489</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>492</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>492</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>503</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>503</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>509</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>520</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>531</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>390</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>376</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>557</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="CC2" t="s">
+        <v>659</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>666</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>677</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>681</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>685</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>690</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>545</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>516</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>405</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>707</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>710</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>423</v>
+      </c>
+      <c r="CO2" t="s">
         <v>403</v>
       </c>
-      <c r="BR2" t="s">
-        <v>509</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>581</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>531</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>595</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>606</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>611</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>622</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>629</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>392</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>543</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>427</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>660</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>667</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>678</v>
-      </c>
-      <c r="CF2" t="s">
+      <c r="CP2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>369</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>369</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>369</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>373</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>680</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>420</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>731</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DR2" t="s">
         <v>682</v>
       </c>
-      <c r="CG2" t="s">
-        <v>686</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>691</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>546</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>517</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>406</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>708</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>711</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>424</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>404</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>481</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>370</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>370</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>370</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>374</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>681</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DM2" t="s">
+      <c r="DS2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>423</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>480</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>798</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>480</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>369</v>
+      </c>
+      <c r="EC2" t="s">
         <v>421</v>
       </c>
-      <c r="DN2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>732</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>683</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>424</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>481</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>799</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>481</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>370</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>422</v>
-      </c>
       <c r="ED2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="EE2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:135" x14ac:dyDescent="0.3">
@@ -3788,361 +3793,361 @@
         <v>234</v>
       </c>
       <c r="Q3" t="s">
-        <v>245</v>
+        <v>826</v>
       </c>
       <c r="R3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AD3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AK3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AL3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AP3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AQ3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AR3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AS3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AW3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AY3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AZ3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="BB3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BC3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BD3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BE3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BF3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BG3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BI3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="BJ3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="BK3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BL3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BM3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BN3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="BO3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="BP3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="BQ3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="BR3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BS3" t="s">
+        <v>581</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>585</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>595</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>606</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>611</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>527</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>629</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>638</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>647</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>654</v>
+      </c>
+      <c r="CC3" t="s">
         <v>582</v>
       </c>
-      <c r="BT3" t="s">
-        <v>586</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>596</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>607</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>612</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>630</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>639</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>648</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>655</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>583</v>
-      </c>
       <c r="CD3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="CE3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="CF3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="CG3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CH3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="CI3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="CJ3" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>703</v>
+      </c>
+      <c r="CL3" t="s">
         <v>700</v>
       </c>
-      <c r="CK3" t="s">
-        <v>704</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>701</v>
-      </c>
       <c r="CM3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="CN3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="CO3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="CP3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CQ3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CR3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CS3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CT3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CU3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CX3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CY3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CZ3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DA3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DB3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DC3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DD3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="DE3" t="s">
+        <v>369</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>480</v>
+      </c>
+      <c r="DG3" t="s">
         <v>370</v>
       </c>
-      <c r="DF3" t="s">
-        <v>481</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>371</v>
-      </c>
       <c r="DH3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DI3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="DJ3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="DK3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DN3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DO3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DP3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="DQ3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DR3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="DS3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DT3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="DW3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="EA3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="ED3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="EE3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:135" x14ac:dyDescent="0.3">
@@ -4195,361 +4200,361 @@
         <v>235</v>
       </c>
       <c r="Q4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AD4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>480</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>490</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>493</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>480</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>480</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>493</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>480</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>480</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>480</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>504</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>504</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>510</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>521</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>532</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>542</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>550</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>541</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>567</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>374</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>550</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>521</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>596</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>398</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>612</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>510</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>566</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>639</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>648</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>655</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>417</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>376</v>
+      </c>
+      <c r="CF4" t="s">
         <v>372</v>
       </c>
-      <c r="AH4" t="s">
-        <v>381</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>392</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>401</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>409</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>406</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>434</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>444</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>364</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>481</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>481</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>481</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>484</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>488</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>481</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>491</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>494</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>481</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>481</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>494</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>481</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>481</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>481</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>505</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>505</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>522</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>533</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>543</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>551</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>542</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>568</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>375</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>551</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>522</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>597</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>399</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>613</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>567</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>640</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>649</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>656</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>418</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>669</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>377</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>373</v>
-      </c>
       <c r="CG4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="CH4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="CI4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="CJ4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="CK4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CL4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="CM4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CN4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="CO4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="CP4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CQ4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CR4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CS4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CT4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CU4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CX4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CY4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CZ4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DA4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DB4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DC4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DD4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DE4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DF4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DG4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="DH4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DI4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="DJ4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DK4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="DN4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DO4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DP4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DQ4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DR4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="DS4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DT4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="DW4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="EA4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="ED4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="EE4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:135" x14ac:dyDescent="0.3">
@@ -4602,361 +4607,361 @@
         <v>236</v>
       </c>
       <c r="Q5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AI5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AM5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AP5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AQ5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AR5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AS5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AT5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AW5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AZ5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BB5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BC5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BD5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BE5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BF5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BG5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BI5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BJ5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BK5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="BL5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BM5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BN5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BO5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BP5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="BQ5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="BR5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BS5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BT5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BU5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BV5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BW5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BX5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="BY5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BZ5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="CA5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="CB5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="CC5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="CD5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="CE5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="CF5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="CG5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="CH5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="CI5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="CJ5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="CK5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="CL5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="CM5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="CN5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="CO5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CP5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CQ5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CR5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CS5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CT5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CU5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CX5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CY5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CZ5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DA5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DB5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DC5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DD5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DE5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="DF5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DG5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="DH5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DI5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="DJ5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="DK5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="DN5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DO5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DP5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DQ5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DR5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="DS5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DT5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="DW5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="EA5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="ED5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="EE5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:135" x14ac:dyDescent="0.3">
@@ -5009,361 +5014,361 @@
         <v>237</v>
       </c>
       <c r="Q6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AB6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AH6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AP6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AQ6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AR6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AS6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AT6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AW6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AZ6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BB6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BC6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BD6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BE6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BF6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BG6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BI6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BK6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BL6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BM6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BN6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="BO6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BP6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BQ6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BR6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BS6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BT6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BU6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="BV6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BW6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BX6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BY6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="BZ6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="CA6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="CB6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="CC6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="CD6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="CE6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="CF6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="CG6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CH6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CI6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CJ6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CK6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CL6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CM6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CN6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="CO6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="CP6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CQ6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CR6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CS6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="CT6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="CU6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CX6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CY6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CZ6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DA6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DB6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DC6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DD6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="DE6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="DF6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="DG6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="DH6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="DI6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="DJ6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="DK6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="DN6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="DO6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DP6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="DQ6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="DR6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="DS6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="DT6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="DW6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="EA6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="ED6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="EE6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:135" x14ac:dyDescent="0.3">
@@ -5416,361 +5421,361 @@
         <v>238</v>
       </c>
       <c r="Q7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AA7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AE7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AH7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AK7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AP7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AQ7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AR7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AS7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AT7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AW7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AZ7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BB7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BC7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BD7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BE7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BF7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BG7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BI7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BK7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BL7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BM7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BN7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BO7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BP7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BQ7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="BR7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BS7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BT7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BU7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BV7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BW7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="BX7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="BY7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="BZ7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="CA7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="CB7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="CC7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="CD7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="CE7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="CF7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="CG7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CH7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CI7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CJ7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CK7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CL7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CM7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CN7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="CO7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CP7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CQ7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="CR7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="CS7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CT7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="CU7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CX7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CY7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="CZ7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DA7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DB7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DC7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DD7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="DE7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="DF7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="DG7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="DH7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="DI7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="DJ7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="DK7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DL7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="DN7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="DO7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="DP7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="DQ7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="DR7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="DS7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="DT7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="DW7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="EA7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="ED7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="EE7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:135" x14ac:dyDescent="0.3">
@@ -5823,361 +5828,361 @@
         <v>239</v>
       </c>
       <c r="Q8" t="s">
+        <v>249</v>
+      </c>
+      <c r="R8" t="s">
+        <v>249</v>
+      </c>
+      <c r="S8" t="s">
         <v>250</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>266</v>
+      </c>
+      <c r="U8" t="s">
+        <v>279</v>
+      </c>
+      <c r="V8" t="s">
+        <v>290</v>
+      </c>
+      <c r="W8" t="s">
+        <v>299</v>
+      </c>
+      <c r="X8" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC8" t="s">
         <v>250</v>
       </c>
-      <c r="S8" t="s">
-        <v>251</v>
-      </c>
-      <c r="T8" t="s">
-        <v>267</v>
-      </c>
-      <c r="U8" t="s">
-        <v>280</v>
-      </c>
-      <c r="V8" t="s">
-        <v>291</v>
-      </c>
-      <c r="W8" t="s">
-        <v>300</v>
-      </c>
-      <c r="X8" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>251</v>
-      </c>
       <c r="AD8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AE8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AI8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AJ8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AK8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AP8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AR8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AT8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AW8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AZ8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BB8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BC8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BD8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BE8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BF8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BG8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BI8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BK8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BL8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BM8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="BN8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BO8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="BP8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BQ8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BR8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BS8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BT8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BU8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="BV8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BW8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="BX8" t="s">
+        <v>625</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>633</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>643</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>650</v>
+      </c>
+      <c r="CB8" t="s">
         <v>626</v>
       </c>
-      <c r="BY8" t="s">
-        <v>634</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>644</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>651</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>627</v>
-      </c>
       <c r="CC8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="CD8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="CE8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="CF8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="CG8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CH8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CI8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CJ8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CK8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CL8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CM8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CN8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="CO8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="CP8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="CQ8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="CR8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="CS8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="CT8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="CU8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW8" t="s">
+        <v>732</v>
+      </c>
+      <c r="CX8" t="s">
         <v>733</v>
       </c>
-      <c r="CX8" t="s">
+      <c r="CY8" t="s">
         <v>734</v>
       </c>
-      <c r="CY8" t="s">
-        <v>735</v>
-      </c>
       <c r="CZ8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DA8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DB8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DC8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DD8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="DE8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="DF8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="DG8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="DH8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="DI8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="DJ8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="DK8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="DN8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="DO8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DP8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="DQ8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DR8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="DS8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="DT8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="DU8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="DV8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="DW8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="DX8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="EA8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="ED8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="EE8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:135" x14ac:dyDescent="0.3">
@@ -6230,361 +6235,361 @@
         <v>240</v>
       </c>
       <c r="Q9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AH9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AI9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AJ9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AK9" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>448</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>456</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>465</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>467</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>480</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>480</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>480</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>480</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>480</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>480</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>495</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>373</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>480</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>498</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>499</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>480</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>480</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>506</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>506</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>515</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>526</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>553</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>562</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>570</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>429</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>590</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>601</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>608</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>617</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>626</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>634</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>644</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>651</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>561</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>495</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>673</v>
+      </c>
+      <c r="CE9" t="s">
         <v>414</v>
       </c>
-      <c r="AL9" t="s">
-        <v>423</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>439</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>449</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>457</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>466</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>468</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>479</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>481</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>481</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>481</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>481</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>481</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>481</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>481</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>496</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>374</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>481</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>499</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>500</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>481</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>481</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>507</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>507</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>516</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>527</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>538</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>429</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>554</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>563</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>571</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>490</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>430</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>591</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>602</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>609</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>618</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>627</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>635</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>645</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>652</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>562</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>496</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>674</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>415</v>
-      </c>
       <c r="CF9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="CG9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="CH9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="CI9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="CJ9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="CK9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="CL9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="CM9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="CN9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="CO9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="CP9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CQ9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CR9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CS9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CT9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="CU9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CX9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CY9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CZ9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DA9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DB9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DC9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DD9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="DE9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DF9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DG9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="DH9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DI9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="DJ9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DK9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="DN9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DO9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DP9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DQ9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DR9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="DS9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="DT9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="DW9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="EA9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="ED9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="EE9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:135" x14ac:dyDescent="0.3">
@@ -6637,361 +6642,361 @@
         <v>241</v>
       </c>
       <c r="Q10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AD10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AJ10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AK10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AP10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AQ10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AR10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AS10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AT10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AW10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AZ10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BB10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BC10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BD10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="BE10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="BF10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BG10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BI10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BK10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BL10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BM10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BN10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BO10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="BP10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BQ10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BR10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BS10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="BT10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BU10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="BV10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BW10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BX10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="BY10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="BZ10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="CA10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="CB10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="CC10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="CD10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CE10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CF10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CG10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CH10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CI10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CJ10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CK10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CL10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CM10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CN10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="CO10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="CP10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CQ10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CR10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CS10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CT10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CU10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CX10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CY10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CZ10" t="s">
+        <v>735</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>550</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>580</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>508</v>
+      </c>
+      <c r="DD10" t="s">
         <v>736</v>
       </c>
-      <c r="DA10" t="s">
-        <v>551</v>
-      </c>
-      <c r="DB10" t="s">
-        <v>581</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>509</v>
-      </c>
-      <c r="DD10" t="s">
-        <v>737</v>
-      </c>
       <c r="DE10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="DF10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="DG10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DH10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="DI10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="DJ10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="DK10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="DN10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="DO10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="DP10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="DQ10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="DR10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="DS10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="DT10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="DW10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="EA10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="EB10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="EC10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="ED10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="EE10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.3">
@@ -7044,361 +7049,361 @@
         <v>242</v>
       </c>
       <c r="Q11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V11" t="s">
+        <v>286</v>
+      </c>
+      <c r="W11" t="s">
+        <v>302</v>
+      </c>
+      <c r="X11" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AO11" t="s">
         <v>287</v>
       </c>
-      <c r="W11" t="s">
-        <v>303</v>
-      </c>
-      <c r="X11" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>323</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>388</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>398</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>406</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>424</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>431</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>440</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>288</v>
-      </c>
       <c r="AP11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AQ11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AR11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AS11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AW11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AZ11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BB11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="BC11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BD11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BE11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="BF11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BG11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BI11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BJ11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BK11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BL11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BM11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BN11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="BO11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="BP11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BQ11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="BR11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BS11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BT11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BU11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="BV11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BW11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BX11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="BY11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="BZ11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="CA11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="CB11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="CC11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CD11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CE11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="CF11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CG11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="CH11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="CI11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="CJ11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="CK11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="CL11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="CM11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="CN11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="CO11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="CP11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CQ11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CR11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="CS11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CT11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CU11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CV11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CW11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CX11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CY11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CZ11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DA11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DB11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DC11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DD11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DE11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="DF11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DG11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="DH11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DI11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="DJ11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="DK11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="DN11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DO11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DP11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="DQ11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DR11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="DS11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="DT11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="DW11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="EA11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="ED11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="EE11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.3">
@@ -7451,361 +7456,361 @@
         <v>243</v>
       </c>
       <c r="Q12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>440</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>449</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>332</v>
       </c>
-      <c r="AA12" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="AR12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AS12" t="s">
         <v>363</v>
       </c>
-      <c r="AF12" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>389</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>399</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>395</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>417</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>441</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>450</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>317</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>333</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>472</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>364</v>
-      </c>
       <c r="AT12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AV12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AW12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AY12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AZ12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BA12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BB12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BC12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BD12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BE12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BF12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BG12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BH12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BI12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BK12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BL12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BM12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="BN12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BO12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="BP12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BQ12" t="s">
+        <v>572</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>579</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>584</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>593</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>604</v>
+      </c>
+      <c r="BV12" t="s">
         <v>573</v>
       </c>
-      <c r="BR12" t="s">
-        <v>580</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>585</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>594</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>605</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>574</v>
-      </c>
       <c r="BW12" t="s">
+        <v>620</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>495</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>637</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>646</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>653</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>493</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>665</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>676</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>680</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>375</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>720</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>725</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>730</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>480</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>602</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>480</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>480</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>480</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>480</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>480</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>406</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>480</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>749</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>480</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>758</v>
+      </c>
+      <c r="DJ12" t="s">
         <v>621</v>
       </c>
-      <c r="BX12" t="s">
-        <v>496</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>638</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>647</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>654</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>494</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>666</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>677</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>681</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>376</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>721</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>726</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CR12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>731</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CW12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>481</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>603</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>481</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>481</v>
-      </c>
-      <c r="DB12" t="s">
-        <v>481</v>
-      </c>
-      <c r="DC12" t="s">
-        <v>481</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>481</v>
-      </c>
-      <c r="DE12" t="s">
-        <v>407</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>481</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>750</v>
-      </c>
-      <c r="DH12" t="s">
-        <v>481</v>
-      </c>
-      <c r="DI12" t="s">
-        <v>759</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>622</v>
-      </c>
       <c r="DK12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DL12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DM12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="DN12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DO12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DP12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="DQ12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DR12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="DS12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DT12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DU12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DV12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="DW12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DY12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DZ12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="EA12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EB12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="EC12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="ED12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="EE12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>

--- a/NutrientsData.xlsx
+++ b/NutrientsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/321e4917f5e22f1c/Desktop/IT-Projekte/Multidimensional_Nutri-Score/Code/Multidimensional-Nutri-Score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_B53138B168FF30212D2D4CE955AF0E4778796F5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21151B3-DC5C-437C-BED4-EA1DDB0FFCF7}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_B53138B168FF30212D2D4CE955AF0E4778796F5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FFE337-B494-4DDA-B228-4CBE4FC08FD9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8196" yWindow="1104" windowWidth="11772" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nutrients" sheetId="1" r:id="rId1"/>
@@ -1166,1354 +1166,1354 @@
     <t>50,0 mg</t>
   </si>
   <si>
+    <t>393,0 mg</t>
+  </si>
+  <si>
+    <t>475,0 mg</t>
+  </si>
+  <si>
+    <t>373,0 mg</t>
+  </si>
+  <si>
+    <t>1.920,0 mg</t>
+  </si>
+  <si>
+    <t>310,0 mg</t>
+  </si>
+  <si>
+    <t>340,0 mg</t>
+  </si>
+  <si>
+    <t>380,0 mg</t>
+  </si>
+  <si>
+    <t>382,0 mg</t>
+  </si>
+  <si>
+    <t>150,0 mg</t>
+  </si>
+  <si>
+    <t>544,0 mg</t>
+  </si>
+  <si>
+    <t>147,0 mg</t>
+  </si>
+  <si>
+    <t>9,0 mg</t>
+  </si>
+  <si>
+    <t>713,0 mg</t>
+  </si>
+  <si>
+    <t>105,0 mg</t>
+  </si>
+  <si>
+    <t>114,0 mg</t>
+  </si>
+  <si>
+    <t>6,0 mg</t>
+  </si>
+  <si>
+    <t>12,0 mg</t>
+  </si>
+  <si>
+    <t>16,0 mg</t>
+  </si>
+  <si>
+    <t>120,0 mg</t>
+  </si>
+  <si>
+    <t>87,0 mg</t>
+  </si>
+  <si>
+    <t>56,0 mg</t>
+  </si>
+  <si>
+    <t>36,0 mg</t>
+  </si>
+  <si>
+    <t>24,0 mg</t>
+  </si>
+  <si>
+    <t>414,0 mg</t>
+  </si>
+  <si>
+    <t>21,0 mg</t>
+  </si>
+  <si>
+    <t>30,0 mg</t>
+  </si>
+  <si>
+    <t>121,0 mg</t>
+  </si>
+  <si>
+    <t>130,0 mg</t>
+  </si>
+  <si>
+    <t>28,0 mg</t>
+  </si>
+  <si>
+    <t>138,0 mg</t>
+  </si>
+  <si>
+    <t>82,0 mg</t>
+  </si>
+  <si>
+    <t>656,0 mg</t>
+  </si>
+  <si>
+    <t>168,0 mg</t>
+  </si>
+  <si>
+    <t>351,0 mg</t>
+  </si>
+  <si>
+    <t>244,0 mg</t>
+  </si>
+  <si>
+    <t>325,0 mg</t>
+  </si>
+  <si>
+    <t>100,0 mg</t>
+  </si>
+  <si>
+    <t>410,0 mg</t>
+  </si>
+  <si>
+    <t>216,0 mg</t>
+  </si>
+  <si>
+    <t>109,0 mg</t>
+  </si>
+  <si>
+    <t>78,0 mg</t>
+  </si>
+  <si>
+    <t>32,0 mg</t>
+  </si>
+  <si>
+    <t>68,0 mg</t>
+  </si>
+  <si>
+    <t>143,0 mg</t>
+  </si>
+  <si>
+    <t>61,0 mg</t>
+  </si>
+  <si>
+    <t>23,0 mg</t>
+  </si>
+  <si>
+    <t>180,0 mg</t>
+  </si>
+  <si>
+    <t>13,0 mg</t>
+  </si>
+  <si>
+    <t>40,0 mg</t>
+  </si>
+  <si>
+    <t>200,0 mg</t>
+  </si>
+  <si>
+    <t>240,0 mg</t>
+  </si>
+  <si>
+    <t>190,0 mg</t>
+  </si>
+  <si>
+    <t>140,0 mg</t>
+  </si>
+  <si>
+    <t>550,0 µg</t>
+  </si>
+  <si>
+    <t>4.120,0 µg</t>
+  </si>
+  <si>
+    <t>1.300,0 µg</t>
+  </si>
+  <si>
+    <t>12.500,0 µg</t>
+  </si>
+  <si>
+    <t>1.920,0 µg</t>
+  </si>
+  <si>
+    <t>6.895,0 µg</t>
+  </si>
+  <si>
+    <t>1.174,0 µg</t>
+  </si>
+  <si>
+    <t>4.437,0 µg</t>
+  </si>
+  <si>
+    <t>2.500,0 µg</t>
+  </si>
+  <si>
+    <t>2.100,0 µg</t>
+  </si>
+  <si>
+    <t>220,0 µg</t>
+  </si>
+  <si>
+    <t>1.020,0 µg</t>
+  </si>
+  <si>
+    <t>605,0 µg</t>
+  </si>
+  <si>
+    <t>5.727,0 µg</t>
+  </si>
+  <si>
+    <t>3.731,0 µg</t>
+  </si>
+  <si>
+    <t>4.816,0 µg</t>
+  </si>
+  <si>
+    <t>519,0 µg</t>
+  </si>
+  <si>
+    <t>3.642,0 µg</t>
+  </si>
+  <si>
+    <t>1.350,0 µg</t>
+  </si>
+  <si>
+    <t>130,0 µg</t>
+  </si>
+  <si>
+    <t>240,0 µg</t>
+  </si>
+  <si>
+    <t>126,0 µg</t>
+  </si>
+  <si>
+    <t>3.807,0 µg</t>
+  </si>
+  <si>
+    <t>3.195,0 µg</t>
+  </si>
+  <si>
+    <t>114,0 µg</t>
+  </si>
+  <si>
+    <t>410,0 µg</t>
+  </si>
+  <si>
+    <t>12,0 µg</t>
+  </si>
+  <si>
+    <t>880,0 µg</t>
+  </si>
+  <si>
+    <t>530,0 µg</t>
+  </si>
+  <si>
+    <t>1.260,0 µg</t>
+  </si>
+  <si>
+    <t>260,0 µg</t>
+  </si>
+  <si>
+    <t>3.000,0 µg</t>
+  </si>
+  <si>
+    <t>338,0 µg</t>
+  </si>
+  <si>
+    <t>31,0 µg</t>
+  </si>
+  <si>
+    <t>4.934,0 µg</t>
+  </si>
+  <si>
+    <t>1.970,0 µg</t>
+  </si>
+  <si>
+    <t>80,0 µg</t>
+  </si>
+  <si>
+    <t>53,0 µg</t>
+  </si>
+  <si>
+    <t>13,0 µg</t>
+  </si>
+  <si>
+    <t>680,0 µg</t>
+  </si>
+  <si>
+    <t>110,0 µg</t>
+  </si>
+  <si>
+    <t>2,8 µg</t>
+  </si>
+  <si>
+    <t>3,0 µg</t>
+  </si>
+  <si>
+    <t>15,0 µg</t>
+  </si>
+  <si>
+    <t>0,3 µg</t>
+  </si>
+  <si>
+    <t>14,0 µg</t>
+  </si>
+  <si>
+    <t>49,8 µg</t>
+  </si>
+  <si>
+    <t>0,8 µg</t>
+  </si>
+  <si>
+    <t>7,5 µg</t>
+  </si>
+  <si>
+    <t>0,0 mg</t>
+  </si>
+  <si>
+    <t>3.786,0 mg</t>
+  </si>
+  <si>
+    <t>246,0 mg</t>
+  </si>
+  <si>
+    <t>1.003,0 mg</t>
+  </si>
+  <si>
+    <t>700,0 mg</t>
+  </si>
+  <si>
+    <t>3.636,0 mg</t>
+  </si>
+  <si>
+    <t>284,0 mg</t>
+  </si>
+  <si>
+    <t>904,0 mg</t>
+  </si>
+  <si>
+    <t>7.422,0 mg</t>
+  </si>
+  <si>
+    <t>530,0 mg</t>
+  </si>
+  <si>
+    <t>1.907,0 mg</t>
+  </si>
+  <si>
+    <t>11.016,0 mg</t>
+  </si>
+  <si>
+    <t>317,0 mg</t>
+  </si>
+  <si>
+    <t>477,0 mg</t>
+  </si>
+  <si>
+    <t>8.672,0 mg</t>
+  </si>
+  <si>
+    <t>710,0 mg</t>
+  </si>
+  <si>
+    <t>6.890,0 mg</t>
+  </si>
+  <si>
+    <t>4.100,0 mg</t>
+  </si>
+  <si>
+    <t>770,0 mg</t>
+  </si>
+  <si>
+    <t>596,0 mg</t>
+  </si>
+  <si>
+    <t>457,0 mg</t>
+  </si>
+  <si>
+    <t>5.300,0 mg</t>
+  </si>
+  <si>
+    <t>2.952,0 mg</t>
+  </si>
+  <si>
+    <t>462,0 mg</t>
+  </si>
+  <si>
+    <t>126,0 mg</t>
+  </si>
+  <si>
+    <t>2.168,0 mg</t>
+  </si>
+  <si>
+    <t>57.992,0 mg</t>
+  </si>
+  <si>
+    <t>3.710,0 mg</t>
+  </si>
+  <si>
+    <t>38,0 mg</t>
+  </si>
+  <si>
+    <t>247,0 mg</t>
+  </si>
+  <si>
+    <t>129,0 mg</t>
+  </si>
+  <si>
+    <t>554,0 mg</t>
+  </si>
+  <si>
+    <t>1.022,0 mg</t>
+  </si>
+  <si>
+    <t>1.150,0 mg</t>
+  </si>
+  <si>
+    <t>1.090,0 mg</t>
+  </si>
+  <si>
+    <t>610,0 mg</t>
+  </si>
+  <si>
+    <t>194,0 mg</t>
+  </si>
+  <si>
+    <t>547,0 mg</t>
+  </si>
+  <si>
+    <t>787,0 mg</t>
+  </si>
+  <si>
+    <t>84,0 mg</t>
+  </si>
+  <si>
+    <t>474,0 mg</t>
+  </si>
+  <si>
+    <t>158,0 mg</t>
+  </si>
+  <si>
+    <t>911,0 mg</t>
+  </si>
+  <si>
+    <t>1.592,0 mg</t>
+  </si>
+  <si>
+    <t>1.990,0 mg</t>
+  </si>
+  <si>
+    <t>1.800,0 mg</t>
+  </si>
+  <si>
+    <t>1.130,0 mg</t>
+  </si>
+  <si>
+    <t>321,0 mg</t>
+  </si>
+  <si>
+    <t>950,0 mg</t>
+  </si>
+  <si>
+    <t>1.082,0 mg</t>
+  </si>
+  <si>
+    <t>58,0 mg</t>
+  </si>
+  <si>
+    <t>415,0 mg</t>
+  </si>
+  <si>
+    <t>155,0 mg</t>
+  </si>
+  <si>
+    <t>594,0 mg</t>
+  </si>
+  <si>
+    <t>1.710,0 mg</t>
+  </si>
+  <si>
+    <t>1.750,0 mg</t>
+  </si>
+  <si>
+    <t>1.730,0 mg</t>
+  </si>
+  <si>
+    <t>500,0 mg</t>
+  </si>
+  <si>
+    <t>241,0 mg</t>
+  </si>
+  <si>
+    <t>302,0 mg</t>
+  </si>
+  <si>
+    <t>735,0 mg</t>
+  </si>
+  <si>
+    <t>119,0 mg</t>
+  </si>
+  <si>
+    <t>43,0 mg</t>
+  </si>
+  <si>
+    <t>238,0 mg</t>
+  </si>
+  <si>
+    <t>491,0 mg</t>
+  </si>
+  <si>
+    <t>600,0 mg</t>
+  </si>
+  <si>
+    <t>640,0 mg</t>
+  </si>
+  <si>
+    <t>173,0 mg</t>
+  </si>
+  <si>
+    <t>387,0 mg</t>
+  </si>
+  <si>
+    <t>67,0 mg</t>
+  </si>
+  <si>
+    <t>33,0 mg</t>
+  </si>
+  <si>
+    <t>280,0 mg</t>
+  </si>
+  <si>
+    <t>230,0 mg</t>
+  </si>
+  <si>
+    <t>390,0 mg</t>
+  </si>
+  <si>
+    <t>27,0 mg</t>
+  </si>
+  <si>
+    <t>202,0 mg</t>
+  </si>
+  <si>
+    <t>35,0 mg</t>
+  </si>
+  <si>
+    <t>285,0 mg</t>
+  </si>
+  <si>
+    <t>653,0 mg</t>
+  </si>
+  <si>
+    <t>806,0 mg</t>
+  </si>
+  <si>
+    <t>1.170,0 mg</t>
+  </si>
+  <si>
+    <t>840,0 mg</t>
+  </si>
+  <si>
+    <t>780,0 mg</t>
+  </si>
+  <si>
+    <t>156,0 mg</t>
+  </si>
+  <si>
+    <t>533,0 mg</t>
+  </si>
+  <si>
+    <t>748,0 mg</t>
+  </si>
+  <si>
+    <t>234,0 mg</t>
+  </si>
+  <si>
+    <t>69,0 mg</t>
+  </si>
+  <si>
+    <t>436,0 mg</t>
+  </si>
+  <si>
+    <t>668,0 mg</t>
+  </si>
+  <si>
+    <t>570,0 mg</t>
+  </si>
+  <si>
+    <t>461,0 mg</t>
+  </si>
+  <si>
+    <t>529,0 mg</t>
+  </si>
+  <si>
+    <t>258,0 mg</t>
+  </si>
+  <si>
+    <t>865,0 mg</t>
+  </si>
+  <si>
+    <t>1.010,0 mg</t>
+  </si>
+  <si>
+    <t>970,0 mg</t>
+  </si>
+  <si>
+    <t>139,0 mg</t>
+  </si>
+  <si>
+    <t>418,0 mg</t>
+  </si>
+  <si>
+    <t>658,0 mg</t>
+  </si>
+  <si>
+    <t>18,0 mg</t>
+  </si>
+  <si>
+    <t>176,0 mg</t>
+  </si>
+  <si>
+    <t>270,0 mg</t>
+  </si>
+  <si>
+    <t>44,0 mg</t>
+  </si>
+  <si>
+    <t>181,0 mg</t>
+  </si>
+  <si>
+    <t>292,0 mg</t>
+  </si>
+  <si>
+    <t>871,0 mg</t>
+  </si>
+  <si>
+    <t>1.120,0 mg</t>
+  </si>
+  <si>
+    <t>1.470,0 mg</t>
+  </si>
+  <si>
+    <t>1.210,0 mg</t>
+  </si>
+  <si>
+    <t>810,0 mg</t>
+  </si>
+  <si>
+    <t>211,0 mg</t>
+  </si>
+  <si>
+    <t>634,0 mg</t>
+  </si>
+  <si>
+    <t>1.045,0 mg</t>
+  </si>
+  <si>
+    <t>54,0 mg</t>
+  </si>
+  <si>
+    <t>359,0 mg</t>
+  </si>
+  <si>
+    <t>189,0 mg</t>
+  </si>
+  <si>
+    <t>1.069,0 mg</t>
+  </si>
+  <si>
+    <t>1.278,0 mg</t>
+  </si>
+  <si>
+    <t>1.300,0 mg</t>
+  </si>
+  <si>
+    <t>1.160,0 mg</t>
+  </si>
+  <si>
+    <t>870,0 mg</t>
+  </si>
+  <si>
+    <t>112,0 mg</t>
+  </si>
+  <si>
+    <t>1.742,0 mg</t>
+  </si>
+  <si>
+    <t>826,0 mg</t>
+  </si>
+  <si>
+    <t>77,0 mg</t>
+  </si>
+  <si>
+    <t>101,0 mg</t>
+  </si>
+  <si>
+    <t>660,0 mg</t>
+  </si>
+  <si>
+    <t>300,0 mg</t>
+  </si>
+  <si>
+    <t>288,0 mg</t>
+  </si>
+  <si>
+    <t>492,0 mg</t>
+  </si>
+  <si>
+    <t>3.027,0 mg</t>
+  </si>
+  <si>
+    <t>1.258,0 mg</t>
+  </si>
+  <si>
+    <t>6.713,0 mg</t>
+  </si>
+  <si>
+    <t>10.652,0 mg</t>
+  </si>
+  <si>
+    <t>12.460,0 mg</t>
+  </si>
+  <si>
+    <t>11.420,0 mg</t>
+  </si>
+  <si>
+    <t>6.920,0 mg</t>
+  </si>
+  <si>
+    <t>1.761,0 mg</t>
+  </si>
+  <si>
+    <t>6.380,0 mg</t>
+  </si>
+  <si>
+    <t>7.520,0 mg</t>
+  </si>
+  <si>
+    <t>46,0 mg</t>
+  </si>
+  <si>
+    <t>693,0 mg</t>
+  </si>
+  <si>
+    <t>1.218,0 mg</t>
+  </si>
+  <si>
+    <t>1.440,0 mg</t>
+  </si>
+  <si>
+    <t>1.880,0 mg</t>
+  </si>
+  <si>
+    <t>790,0 mg</t>
+  </si>
+  <si>
+    <t>720,0 mg</t>
+  </si>
+  <si>
+    <t>115,0 mg</t>
+  </si>
+  <si>
+    <t>535,0 mg</t>
+  </si>
+  <si>
+    <t>1.505,0 mg</t>
+  </si>
+  <si>
+    <t>1.867,0 mg</t>
+  </si>
+  <si>
+    <t>2.140,0 mg</t>
+  </si>
+  <si>
+    <t>2.120,0 mg</t>
+  </si>
+  <si>
+    <t>1.290,0 mg</t>
+  </si>
+  <si>
+    <t>252,0 mg</t>
+  </si>
+  <si>
+    <t>1.685,0 mg</t>
+  </si>
+  <si>
+    <t>1.200,0 mg</t>
+  </si>
+  <si>
+    <t>639,0 mg</t>
+  </si>
+  <si>
+    <t>419,0 mg</t>
+  </si>
+  <si>
+    <t>2.594,0 mg</t>
+  </si>
+  <si>
+    <t>3.145,0 mg</t>
+  </si>
+  <si>
+    <t>2.980,0 mg</t>
+  </si>
+  <si>
+    <t>3.170,0 mg</t>
+  </si>
+  <si>
+    <t>3.080,0 mg</t>
+  </si>
+  <si>
+    <t>690,0 mg</t>
+  </si>
+  <si>
+    <t>1.548,0 mg</t>
+  </si>
+  <si>
+    <t>289,0 mg</t>
+  </si>
+  <si>
+    <t>102,0 mg</t>
+  </si>
+  <si>
+    <t>1.490,0 mg</t>
+  </si>
+  <si>
+    <t>1.410,0 mg</t>
+  </si>
+  <si>
+    <t>850,0 mg</t>
+  </si>
+  <si>
+    <t>71,0 mg</t>
+  </si>
+  <si>
+    <t>400,0 mg</t>
+  </si>
+  <si>
+    <t>260,0 mg</t>
+  </si>
+  <si>
+    <t>125,0 mg</t>
+  </si>
+  <si>
+    <t>1.230,0 mg</t>
+  </si>
+  <si>
+    <t>320,0 mg</t>
+  </si>
+  <si>
+    <t>864,0 mg</t>
+  </si>
+  <si>
+    <t>49,0 mg</t>
+  </si>
+  <si>
+    <t>708,0 mg</t>
+  </si>
+  <si>
+    <t>1.110,0 mg</t>
+  </si>
+  <si>
+    <t>900,0 mg</t>
+  </si>
+  <si>
+    <t>177,0 mg</t>
+  </si>
+  <si>
+    <t>893,0 mg</t>
+  </si>
+  <si>
+    <t>916,0 mg</t>
+  </si>
+  <si>
+    <t>398,0 mg</t>
+  </si>
+  <si>
+    <t>2.314,0 mg</t>
+  </si>
+  <si>
+    <t>1.118,0 mg</t>
+  </si>
+  <si>
+    <t>7.187,0 mg</t>
+  </si>
+  <si>
+    <t>8.609,0 mg</t>
+  </si>
+  <si>
+    <t>10.390,0 mg</t>
+  </si>
+  <si>
+    <t>10.270,0 mg</t>
+  </si>
+  <si>
+    <t>7.560,0 mg</t>
+  </si>
+  <si>
+    <t>1.622,0 mg</t>
+  </si>
+  <si>
+    <t>7.948,0 mg</t>
+  </si>
+  <si>
+    <t>5.251,0 mg</t>
+  </si>
+  <si>
+    <t>25,0 mg</t>
+  </si>
+  <si>
+    <t>108,0 mg</t>
+  </si>
+  <si>
+    <t>145,0 mg</t>
+  </si>
+  <si>
+    <t>5,0 mg</t>
+  </si>
+  <si>
+    <t>8,0 mg</t>
+  </si>
+  <si>
+    <t>20,0 mg</t>
+  </si>
+  <si>
+    <t>185,0 mg</t>
+  </si>
+  <si>
+    <t>48,0 mg</t>
+  </si>
+  <si>
+    <t>274,0 mg</t>
+  </si>
+  <si>
+    <t>404,0 mg</t>
+  </si>
+  <si>
+    <t>3.273,0 mg</t>
+  </si>
+  <si>
+    <t>3.091,0 mg</t>
+  </si>
+  <si>
+    <t>1.228,0 mg</t>
+  </si>
+  <si>
+    <t>802,0 mg</t>
+  </si>
+  <si>
+    <t>435,0 mg</t>
+  </si>
+  <si>
+    <t>450,0 mg</t>
+  </si>
+  <si>
+    <t>4.347,0 mg</t>
+  </si>
+  <si>
+    <t>921,0 mg</t>
+  </si>
+  <si>
+    <t>746,0 mg</t>
+  </si>
+  <si>
+    <t>1.637,0 mg</t>
+  </si>
+  <si>
+    <t>483,0 mg</t>
+  </si>
+  <si>
+    <t>1.535,0 mg</t>
+  </si>
+  <si>
+    <t>1.400,0 mg</t>
+  </si>
+  <si>
+    <t>1.320,0 mg</t>
+  </si>
+  <si>
+    <t>800,0 mg</t>
+  </si>
+  <si>
+    <t>1.842,0 mg</t>
+  </si>
+  <si>
+    <t>124,0 mg</t>
+  </si>
+  <si>
+    <t>21.274,0 mg</t>
+  </si>
+  <si>
+    <t>580,0 mg</t>
+  </si>
+  <si>
+    <t>614,0 mg</t>
+  </si>
+  <si>
+    <t>682,0 mg</t>
+  </si>
+  <si>
+    <t>4.950,0 mg</t>
+  </si>
+  <si>
+    <t>3.070,0 mg</t>
+  </si>
+  <si>
+    <t>1.318,0 mg</t>
+  </si>
+  <si>
+    <t>1.790,0 mg</t>
+  </si>
+  <si>
+    <t>31.094,0 mg</t>
+  </si>
+  <si>
+    <t>5.080,0 mg</t>
+  </si>
+  <si>
+    <t>169,0 mg</t>
+  </si>
+  <si>
+    <t>773,0 mg</t>
+  </si>
+  <si>
+    <t>201,0 mg</t>
+  </si>
+  <si>
+    <t>170,0 mg</t>
+  </si>
+  <si>
+    <t>2.157,0 mg</t>
+  </si>
+  <si>
+    <t>35.817,0 mg</t>
+  </si>
+  <si>
+    <t>1.023,0 mg</t>
+  </si>
+  <si>
+    <t>88,0 mg</t>
+  </si>
+  <si>
+    <t>186,0 mg</t>
+  </si>
+  <si>
+    <t>250,0 mg</t>
+  </si>
+  <si>
+    <t>6.307,0 mg</t>
+  </si>
+  <si>
+    <t>279,0 mg</t>
+  </si>
+  <si>
+    <t>160,0 mg</t>
+  </si>
+  <si>
+    <t>536,0 mg</t>
+  </si>
+  <si>
+    <t>14,0 mg</t>
+  </si>
+  <si>
+    <t>163,0 mg</t>
+  </si>
+  <si>
+    <t>93,0 mg</t>
+  </si>
+  <si>
+    <t>3,0 mg</t>
+  </si>
+  <si>
+    <t>107,0 mg</t>
+  </si>
+  <si>
+    <t>127,0 mg</t>
+  </si>
+  <si>
+    <t>1.138,0 mg</t>
+  </si>
+  <si>
+    <t>51,0 mg</t>
+  </si>
+  <si>
+    <t>47,0 mg</t>
+  </si>
+  <si>
+    <t>11,0 mg</t>
+  </si>
+  <si>
+    <t>117,0 mg</t>
+  </si>
+  <si>
+    <t>422,0 mg</t>
+  </si>
+  <si>
+    <t>152,0 mg</t>
+  </si>
+  <si>
+    <t>655,0 mg</t>
+  </si>
+  <si>
+    <t>76,0 mg</t>
+  </si>
+  <si>
+    <t>6.230,0 mg</t>
+  </si>
+  <si>
+    <t>3.397,0 mg</t>
+  </si>
+  <si>
+    <t>466,0 mg</t>
+  </si>
+  <si>
+    <t>1.890,0 mg</t>
+  </si>
+  <si>
+    <t>957,0 mg</t>
+  </si>
+  <si>
+    <t>4.403,0 mg</t>
+  </si>
+  <si>
+    <t>2.417,0 mg</t>
+  </si>
+  <si>
+    <t>142,0 mg</t>
+  </si>
+  <si>
+    <t>64,0 mg</t>
+  </si>
+  <si>
+    <t>4,0 mg</t>
+  </si>
+  <si>
+    <t>7.847,0 mg</t>
+  </si>
+  <si>
+    <t>1.739,0 mg</t>
+  </si>
+  <si>
+    <t>785,0 mg</t>
+  </si>
+  <si>
+    <t>620,0 mg</t>
+  </si>
+  <si>
+    <t>1.250,0 mg</t>
+  </si>
+  <si>
+    <t>837,0 mg</t>
+  </si>
+  <si>
+    <t>187,0 mg</t>
+  </si>
+  <si>
+    <t>7,0 mg</t>
+  </si>
+  <si>
+    <t>417,0 mg</t>
+  </si>
+  <si>
+    <t>91,0 mg</t>
+  </si>
+  <si>
+    <t>37,0 mg</t>
+  </si>
+  <si>
+    <t>14.428,0 mg</t>
+  </si>
+  <si>
+    <t>5.793,0 mg</t>
+  </si>
+  <si>
+    <t>1.343,0 mg</t>
+  </si>
+  <si>
+    <t>3.450,0 mg</t>
+  </si>
+  <si>
+    <t>1.105,0 mg</t>
+  </si>
+  <si>
+    <t>909,0 mg</t>
+  </si>
+  <si>
+    <t>6.725,0 mg</t>
+  </si>
+  <si>
+    <t>3.328,0 mg</t>
+  </si>
+  <si>
+    <t>232,0 mg</t>
+  </si>
+  <si>
+    <t>22,0 mg</t>
+  </si>
+  <si>
+    <t>10,0 mg</t>
+  </si>
+  <si>
+    <t>809,0 mg</t>
+  </si>
+  <si>
+    <t>763,0 mg</t>
+  </si>
+  <si>
+    <t>372,0 mg</t>
+  </si>
+  <si>
+    <t>15,0 mg</t>
+  </si>
+  <si>
+    <t>8.174,0 mg</t>
+  </si>
+  <si>
+    <t>5.603,0 mg</t>
+  </si>
+  <si>
+    <t>1.570,0 mg</t>
+  </si>
+  <si>
+    <t>2.113,0 mg</t>
+  </si>
+  <si>
+    <t>369,0 mg</t>
+  </si>
+  <si>
+    <t>9.520,0 mg</t>
+  </si>
+  <si>
+    <t>4.089,0 mg</t>
+  </si>
+  <si>
+    <t>983,0 mg</t>
+  </si>
+  <si>
+    <t>65,0 mg</t>
+  </si>
+  <si>
+    <t>476,0 mg</t>
+  </si>
+  <si>
+    <t>1.388,0 mg</t>
+  </si>
+  <si>
+    <t>8.221,0 mg</t>
+  </si>
+  <si>
+    <t>6.683,0 mg</t>
+  </si>
+  <si>
+    <t>587,0 mg</t>
+  </si>
+  <si>
+    <t>4.768,0 mg</t>
+  </si>
+  <si>
+    <t>2.190,0 mg</t>
+  </si>
+  <si>
+    <t>453,0 mg</t>
+  </si>
+  <si>
+    <t>10.115,0 mg</t>
+  </si>
+  <si>
+    <t>4.461,0 mg</t>
+  </si>
+  <si>
+    <t>53,0 mg</t>
+  </si>
+  <si>
+    <t>350,0 mg</t>
+  </si>
+  <si>
+    <t>455,0 mg</t>
+  </si>
+  <si>
+    <t>782,0 mg</t>
+  </si>
+  <si>
+    <t>2.902,0 mg</t>
+  </si>
+  <si>
+    <t>2.208,0 mg</t>
+  </si>
+  <si>
+    <t>55,0 mg</t>
+  </si>
+  <si>
+    <t>42.660,0 mg</t>
+  </si>
+  <si>
+    <t>1.507,0 mg</t>
+  </si>
+  <si>
+    <t>23.422,0 mg</t>
+  </si>
+  <si>
+    <t>12.931,0 mg</t>
+  </si>
+  <si>
+    <t>2.712,0 mg</t>
+  </si>
+  <si>
+    <t>11.119,0 mg</t>
+  </si>
+  <si>
+    <t>5.503,0 mg</t>
+  </si>
+  <si>
+    <t>1.277,0 mg</t>
+  </si>
+  <si>
+    <t>59.500,0 mg</t>
+  </si>
+  <si>
+    <t>9.296,0 mg</t>
+  </si>
+  <si>
+    <t>122,0 mg</t>
+  </si>
+  <si>
+    <t>1.078,0 mg</t>
+  </si>
+  <si>
+    <t>699,0 mg</t>
+  </si>
+  <si>
+    <t>948,0 mg</t>
+  </si>
+  <si>
+    <t>1.190,0 mg</t>
+  </si>
+  <si>
+    <t>399,0 mg</t>
+  </si>
+  <si>
+    <t>83,0 mg</t>
+  </si>
+  <si>
+    <t>3.000,0 mg</t>
+  </si>
+  <si>
+    <t>1.904,0 mg</t>
+  </si>
+  <si>
+    <t>257,0 mg</t>
+  </si>
+  <si>
+    <t>396,0 mg</t>
+  </si>
+  <si>
+    <t>400,0 µg (= 1.333,3 IE)</t>
+  </si>
+  <si>
     <t>144,0 mg</t>
-  </si>
-  <si>
-    <t>393,0 mg</t>
-  </si>
-  <si>
-    <t>475,0 mg</t>
-  </si>
-  <si>
-    <t>373,0 mg</t>
-  </si>
-  <si>
-    <t>1.920,0 mg</t>
-  </si>
-  <si>
-    <t>310,0 mg</t>
-  </si>
-  <si>
-    <t>340,0 mg</t>
-  </si>
-  <si>
-    <t>380,0 mg</t>
-  </si>
-  <si>
-    <t>382,0 mg</t>
-  </si>
-  <si>
-    <t>150,0 mg</t>
-  </si>
-  <si>
-    <t>544,0 mg</t>
-  </si>
-  <si>
-    <t>147,0 mg</t>
-  </si>
-  <si>
-    <t>9,0 mg</t>
-  </si>
-  <si>
-    <t>713,0 mg</t>
-  </si>
-  <si>
-    <t>105,0 mg</t>
-  </si>
-  <si>
-    <t>114,0 mg</t>
-  </si>
-  <si>
-    <t>6,0 mg</t>
-  </si>
-  <si>
-    <t>12,0 mg</t>
-  </si>
-  <si>
-    <t>16,0 mg</t>
-  </si>
-  <si>
-    <t>120,0 mg</t>
-  </si>
-  <si>
-    <t>87,0 mg</t>
-  </si>
-  <si>
-    <t>56,0 mg</t>
-  </si>
-  <si>
-    <t>36,0 mg</t>
-  </si>
-  <si>
-    <t>24,0 mg</t>
-  </si>
-  <si>
-    <t>414,0 mg</t>
-  </si>
-  <si>
-    <t>21,0 mg</t>
-  </si>
-  <si>
-    <t>30,0 mg</t>
-  </si>
-  <si>
-    <t>121,0 mg</t>
-  </si>
-  <si>
-    <t>130,0 mg</t>
-  </si>
-  <si>
-    <t>28,0 mg</t>
-  </si>
-  <si>
-    <t>138,0 mg</t>
-  </si>
-  <si>
-    <t>82,0 mg</t>
-  </si>
-  <si>
-    <t>656,0 mg</t>
-  </si>
-  <si>
-    <t>168,0 mg</t>
-  </si>
-  <si>
-    <t>351,0 mg</t>
-  </si>
-  <si>
-    <t>244,0 mg</t>
-  </si>
-  <si>
-    <t>325,0 mg</t>
-  </si>
-  <si>
-    <t>100,0 mg</t>
-  </si>
-  <si>
-    <t>410,0 mg</t>
-  </si>
-  <si>
-    <t>216,0 mg</t>
-  </si>
-  <si>
-    <t>109,0 mg</t>
-  </si>
-  <si>
-    <t>78,0 mg</t>
-  </si>
-  <si>
-    <t>32,0 mg</t>
-  </si>
-  <si>
-    <t>68,0 mg</t>
-  </si>
-  <si>
-    <t>143,0 mg</t>
-  </si>
-  <si>
-    <t>61,0 mg</t>
-  </si>
-  <si>
-    <t>23,0 mg</t>
-  </si>
-  <si>
-    <t>180,0 mg</t>
-  </si>
-  <si>
-    <t>13,0 mg</t>
-  </si>
-  <si>
-    <t>40,0 mg</t>
-  </si>
-  <si>
-    <t>200,0 mg</t>
-  </si>
-  <si>
-    <t>240,0 mg</t>
-  </si>
-  <si>
-    <t>190,0 mg</t>
-  </si>
-  <si>
-    <t>140,0 mg</t>
-  </si>
-  <si>
-    <t>550,0 µg</t>
-  </si>
-  <si>
-    <t>4.120,0 µg</t>
-  </si>
-  <si>
-    <t>1.300,0 µg</t>
-  </si>
-  <si>
-    <t>12.500,0 µg</t>
-  </si>
-  <si>
-    <t>1.920,0 µg</t>
-  </si>
-  <si>
-    <t>6.895,0 µg</t>
-  </si>
-  <si>
-    <t>1.174,0 µg</t>
-  </si>
-  <si>
-    <t>4.437,0 µg</t>
-  </si>
-  <si>
-    <t>2.500,0 µg</t>
-  </si>
-  <si>
-    <t>2.100,0 µg</t>
-  </si>
-  <si>
-    <t>220,0 µg</t>
-  </si>
-  <si>
-    <t>1.020,0 µg</t>
-  </si>
-  <si>
-    <t>605,0 µg</t>
-  </si>
-  <si>
-    <t>5.727,0 µg</t>
-  </si>
-  <si>
-    <t>3.731,0 µg</t>
-  </si>
-  <si>
-    <t>4.816,0 µg</t>
-  </si>
-  <si>
-    <t>519,0 µg</t>
-  </si>
-  <si>
-    <t>3.642,0 µg</t>
-  </si>
-  <si>
-    <t>1.350,0 µg</t>
-  </si>
-  <si>
-    <t>130,0 µg</t>
-  </si>
-  <si>
-    <t>240,0 µg</t>
-  </si>
-  <si>
-    <t>126,0 µg</t>
-  </si>
-  <si>
-    <t>3.807,0 µg</t>
-  </si>
-  <si>
-    <t>3.195,0 µg</t>
-  </si>
-  <si>
-    <t>114,0 µg</t>
-  </si>
-  <si>
-    <t>410,0 µg</t>
-  </si>
-  <si>
-    <t>12,0 µg</t>
-  </si>
-  <si>
-    <t>880,0 µg</t>
-  </si>
-  <si>
-    <t>530,0 µg</t>
-  </si>
-  <si>
-    <t>1.260,0 µg</t>
-  </si>
-  <si>
-    <t>260,0 µg</t>
-  </si>
-  <si>
-    <t>3.000,0 µg</t>
-  </si>
-  <si>
-    <t>338,0 µg</t>
-  </si>
-  <si>
-    <t>31,0 µg</t>
-  </si>
-  <si>
-    <t>4.934,0 µg</t>
-  </si>
-  <si>
-    <t>1.970,0 µg</t>
-  </si>
-  <si>
-    <t>80,0 µg</t>
-  </si>
-  <si>
-    <t>53,0 µg</t>
-  </si>
-  <si>
-    <t>13,0 µg</t>
-  </si>
-  <si>
-    <t>680,0 µg</t>
-  </si>
-  <si>
-    <t>110,0 µg</t>
-  </si>
-  <si>
-    <t>2,8 µg</t>
-  </si>
-  <si>
-    <t>3,0 µg</t>
-  </si>
-  <si>
-    <t>15,0 µg</t>
-  </si>
-  <si>
-    <t>0,3 µg</t>
-  </si>
-  <si>
-    <t>14,0 µg</t>
-  </si>
-  <si>
-    <t>49,8 µg</t>
-  </si>
-  <si>
-    <t>0,8 µg</t>
-  </si>
-  <si>
-    <t>7,5 µg</t>
-  </si>
-  <si>
-    <t>0,0 mg</t>
-  </si>
-  <si>
-    <t>3.786,0 mg</t>
-  </si>
-  <si>
-    <t>246,0 mg</t>
-  </si>
-  <si>
-    <t>1.003,0 mg</t>
-  </si>
-  <si>
-    <t>700,0 mg</t>
-  </si>
-  <si>
-    <t>3.636,0 mg</t>
-  </si>
-  <si>
-    <t>284,0 mg</t>
-  </si>
-  <si>
-    <t>904,0 mg</t>
-  </si>
-  <si>
-    <t>7.422,0 mg</t>
-  </si>
-  <si>
-    <t>530,0 mg</t>
-  </si>
-  <si>
-    <t>1.907,0 mg</t>
-  </si>
-  <si>
-    <t>11.016,0 mg</t>
-  </si>
-  <si>
-    <t>317,0 mg</t>
-  </si>
-  <si>
-    <t>477,0 mg</t>
-  </si>
-  <si>
-    <t>8.672,0 mg</t>
-  </si>
-  <si>
-    <t>710,0 mg</t>
-  </si>
-  <si>
-    <t>6.890,0 mg</t>
-  </si>
-  <si>
-    <t>4.100,0 mg</t>
-  </si>
-  <si>
-    <t>770,0 mg</t>
-  </si>
-  <si>
-    <t>596,0 mg</t>
-  </si>
-  <si>
-    <t>457,0 mg</t>
-  </si>
-  <si>
-    <t>5.300,0 mg</t>
-  </si>
-  <si>
-    <t>2.952,0 mg</t>
-  </si>
-  <si>
-    <t>462,0 mg</t>
-  </si>
-  <si>
-    <t>126,0 mg</t>
-  </si>
-  <si>
-    <t>2.168,0 mg</t>
-  </si>
-  <si>
-    <t>57.992,0 mg</t>
-  </si>
-  <si>
-    <t>3.710,0 mg</t>
-  </si>
-  <si>
-    <t>38,0 mg</t>
-  </si>
-  <si>
-    <t>247,0 mg</t>
-  </si>
-  <si>
-    <t>129,0 mg</t>
-  </si>
-  <si>
-    <t>554,0 mg</t>
-  </si>
-  <si>
-    <t>1.022,0 mg</t>
-  </si>
-  <si>
-    <t>1.150,0 mg</t>
-  </si>
-  <si>
-    <t>1.090,0 mg</t>
-  </si>
-  <si>
-    <t>610,0 mg</t>
-  </si>
-  <si>
-    <t>194,0 mg</t>
-  </si>
-  <si>
-    <t>547,0 mg</t>
-  </si>
-  <si>
-    <t>787,0 mg</t>
-  </si>
-  <si>
-    <t>84,0 mg</t>
-  </si>
-  <si>
-    <t>474,0 mg</t>
-  </si>
-  <si>
-    <t>158,0 mg</t>
-  </si>
-  <si>
-    <t>911,0 mg</t>
-  </si>
-  <si>
-    <t>1.592,0 mg</t>
-  </si>
-  <si>
-    <t>1.990,0 mg</t>
-  </si>
-  <si>
-    <t>1.800,0 mg</t>
-  </si>
-  <si>
-    <t>1.130,0 mg</t>
-  </si>
-  <si>
-    <t>321,0 mg</t>
-  </si>
-  <si>
-    <t>950,0 mg</t>
-  </si>
-  <si>
-    <t>1.082,0 mg</t>
-  </si>
-  <si>
-    <t>58,0 mg</t>
-  </si>
-  <si>
-    <t>415,0 mg</t>
-  </si>
-  <si>
-    <t>155,0 mg</t>
-  </si>
-  <si>
-    <t>594,0 mg</t>
-  </si>
-  <si>
-    <t>1.710,0 mg</t>
-  </si>
-  <si>
-    <t>1.750,0 mg</t>
-  </si>
-  <si>
-    <t>1.730,0 mg</t>
-  </si>
-  <si>
-    <t>500,0 mg</t>
-  </si>
-  <si>
-    <t>241,0 mg</t>
-  </si>
-  <si>
-    <t>302,0 mg</t>
-  </si>
-  <si>
-    <t>735,0 mg</t>
-  </si>
-  <si>
-    <t>119,0 mg</t>
-  </si>
-  <si>
-    <t>43,0 mg</t>
-  </si>
-  <si>
-    <t>238,0 mg</t>
-  </si>
-  <si>
-    <t>491,0 mg</t>
-  </si>
-  <si>
-    <t>600,0 mg</t>
-  </si>
-  <si>
-    <t>640,0 mg</t>
-  </si>
-  <si>
-    <t>173,0 mg</t>
-  </si>
-  <si>
-    <t>387,0 mg</t>
-  </si>
-  <si>
-    <t>67,0 mg</t>
-  </si>
-  <si>
-    <t>33,0 mg</t>
-  </si>
-  <si>
-    <t>280,0 mg</t>
-  </si>
-  <si>
-    <t>230,0 mg</t>
-  </si>
-  <si>
-    <t>390,0 mg</t>
-  </si>
-  <si>
-    <t>27,0 mg</t>
-  </si>
-  <si>
-    <t>202,0 mg</t>
-  </si>
-  <si>
-    <t>35,0 mg</t>
-  </si>
-  <si>
-    <t>285,0 mg</t>
-  </si>
-  <si>
-    <t>653,0 mg</t>
-  </si>
-  <si>
-    <t>806,0 mg</t>
-  </si>
-  <si>
-    <t>1.170,0 mg</t>
-  </si>
-  <si>
-    <t>840,0 mg</t>
-  </si>
-  <si>
-    <t>780,0 mg</t>
-  </si>
-  <si>
-    <t>156,0 mg</t>
-  </si>
-  <si>
-    <t>533,0 mg</t>
-  </si>
-  <si>
-    <t>748,0 mg</t>
-  </si>
-  <si>
-    <t>234,0 mg</t>
-  </si>
-  <si>
-    <t>69,0 mg</t>
-  </si>
-  <si>
-    <t>436,0 mg</t>
-  </si>
-  <si>
-    <t>668,0 mg</t>
-  </si>
-  <si>
-    <t>570,0 mg</t>
-  </si>
-  <si>
-    <t>461,0 mg</t>
-  </si>
-  <si>
-    <t>529,0 mg</t>
-  </si>
-  <si>
-    <t>258,0 mg</t>
-  </si>
-  <si>
-    <t>865,0 mg</t>
-  </si>
-  <si>
-    <t>1.010,0 mg</t>
-  </si>
-  <si>
-    <t>970,0 mg</t>
-  </si>
-  <si>
-    <t>139,0 mg</t>
-  </si>
-  <si>
-    <t>418,0 mg</t>
-  </si>
-  <si>
-    <t>658,0 mg</t>
-  </si>
-  <si>
-    <t>18,0 mg</t>
-  </si>
-  <si>
-    <t>176,0 mg</t>
-  </si>
-  <si>
-    <t>270,0 mg</t>
-  </si>
-  <si>
-    <t>44,0 mg</t>
-  </si>
-  <si>
-    <t>181,0 mg</t>
-  </si>
-  <si>
-    <t>292,0 mg</t>
-  </si>
-  <si>
-    <t>871,0 mg</t>
-  </si>
-  <si>
-    <t>1.120,0 mg</t>
-  </si>
-  <si>
-    <t>1.470,0 mg</t>
-  </si>
-  <si>
-    <t>1.210,0 mg</t>
-  </si>
-  <si>
-    <t>810,0 mg</t>
-  </si>
-  <si>
-    <t>211,0 mg</t>
-  </si>
-  <si>
-    <t>634,0 mg</t>
-  </si>
-  <si>
-    <t>1.045,0 mg</t>
-  </si>
-  <si>
-    <t>54,0 mg</t>
-  </si>
-  <si>
-    <t>359,0 mg</t>
-  </si>
-  <si>
-    <t>189,0 mg</t>
-  </si>
-  <si>
-    <t>1.069,0 mg</t>
-  </si>
-  <si>
-    <t>1.278,0 mg</t>
-  </si>
-  <si>
-    <t>1.300,0 mg</t>
-  </si>
-  <si>
-    <t>1.160,0 mg</t>
-  </si>
-  <si>
-    <t>870,0 mg</t>
-  </si>
-  <si>
-    <t>112,0 mg</t>
-  </si>
-  <si>
-    <t>1.742,0 mg</t>
-  </si>
-  <si>
-    <t>826,0 mg</t>
-  </si>
-  <si>
-    <t>77,0 mg</t>
-  </si>
-  <si>
-    <t>101,0 mg</t>
-  </si>
-  <si>
-    <t>660,0 mg</t>
-  </si>
-  <si>
-    <t>300,0 mg</t>
-  </si>
-  <si>
-    <t>288,0 mg</t>
-  </si>
-  <si>
-    <t>492,0 mg</t>
-  </si>
-  <si>
-    <t>3.027,0 mg</t>
-  </si>
-  <si>
-    <t>1.258,0 mg</t>
-  </si>
-  <si>
-    <t>6.713,0 mg</t>
-  </si>
-  <si>
-    <t>10.652,0 mg</t>
-  </si>
-  <si>
-    <t>12.460,0 mg</t>
-  </si>
-  <si>
-    <t>11.420,0 mg</t>
-  </si>
-  <si>
-    <t>6.920,0 mg</t>
-  </si>
-  <si>
-    <t>1.761,0 mg</t>
-  </si>
-  <si>
-    <t>6.380,0 mg</t>
-  </si>
-  <si>
-    <t>7.520,0 mg</t>
-  </si>
-  <si>
-    <t>46,0 mg</t>
-  </si>
-  <si>
-    <t>693,0 mg</t>
-  </si>
-  <si>
-    <t>1.218,0 mg</t>
-  </si>
-  <si>
-    <t>1.440,0 mg</t>
-  </si>
-  <si>
-    <t>1.880,0 mg</t>
-  </si>
-  <si>
-    <t>790,0 mg</t>
-  </si>
-  <si>
-    <t>720,0 mg</t>
-  </si>
-  <si>
-    <t>115,0 mg</t>
-  </si>
-  <si>
-    <t>535,0 mg</t>
-  </si>
-  <si>
-    <t>1.505,0 mg</t>
-  </si>
-  <si>
-    <t>1.867,0 mg</t>
-  </si>
-  <si>
-    <t>2.140,0 mg</t>
-  </si>
-  <si>
-    <t>2.120,0 mg</t>
-  </si>
-  <si>
-    <t>1.290,0 mg</t>
-  </si>
-  <si>
-    <t>252,0 mg</t>
-  </si>
-  <si>
-    <t>1.685,0 mg</t>
-  </si>
-  <si>
-    <t>1.200,0 mg</t>
-  </si>
-  <si>
-    <t>639,0 mg</t>
-  </si>
-  <si>
-    <t>419,0 mg</t>
-  </si>
-  <si>
-    <t>2.594,0 mg</t>
-  </si>
-  <si>
-    <t>3.145,0 mg</t>
-  </si>
-  <si>
-    <t>2.980,0 mg</t>
-  </si>
-  <si>
-    <t>3.170,0 mg</t>
-  </si>
-  <si>
-    <t>3.080,0 mg</t>
-  </si>
-  <si>
-    <t>690,0 mg</t>
-  </si>
-  <si>
-    <t>1.548,0 mg</t>
-  </si>
-  <si>
-    <t>289,0 mg</t>
-  </si>
-  <si>
-    <t>102,0 mg</t>
-  </si>
-  <si>
-    <t>1.490,0 mg</t>
-  </si>
-  <si>
-    <t>1.410,0 mg</t>
-  </si>
-  <si>
-    <t>850,0 mg</t>
-  </si>
-  <si>
-    <t>71,0 mg</t>
-  </si>
-  <si>
-    <t>400,0 mg</t>
-  </si>
-  <si>
-    <t>260,0 mg</t>
-  </si>
-  <si>
-    <t>125,0 mg</t>
-  </si>
-  <si>
-    <t>1.230,0 mg</t>
-  </si>
-  <si>
-    <t>320,0 mg</t>
-  </si>
-  <si>
-    <t>864,0 mg</t>
-  </si>
-  <si>
-    <t>49,0 mg</t>
-  </si>
-  <si>
-    <t>708,0 mg</t>
-  </si>
-  <si>
-    <t>1.110,0 mg</t>
-  </si>
-  <si>
-    <t>900,0 mg</t>
-  </si>
-  <si>
-    <t>177,0 mg</t>
-  </si>
-  <si>
-    <t>893,0 mg</t>
-  </si>
-  <si>
-    <t>916,0 mg</t>
-  </si>
-  <si>
-    <t>398,0 mg</t>
-  </si>
-  <si>
-    <t>2.314,0 mg</t>
-  </si>
-  <si>
-    <t>1.118,0 mg</t>
-  </si>
-  <si>
-    <t>7.187,0 mg</t>
-  </si>
-  <si>
-    <t>8.609,0 mg</t>
-  </si>
-  <si>
-    <t>10.390,0 mg</t>
-  </si>
-  <si>
-    <t>10.270,0 mg</t>
-  </si>
-  <si>
-    <t>7.560,0 mg</t>
-  </si>
-  <si>
-    <t>1.622,0 mg</t>
-  </si>
-  <si>
-    <t>7.948,0 mg</t>
-  </si>
-  <si>
-    <t>5.251,0 mg</t>
-  </si>
-  <si>
-    <t>25,0 mg</t>
-  </si>
-  <si>
-    <t>108,0 mg</t>
-  </si>
-  <si>
-    <t>145,0 mg</t>
-  </si>
-  <si>
-    <t>5,0 mg</t>
-  </si>
-  <si>
-    <t>8,0 mg</t>
-  </si>
-  <si>
-    <t>20,0 mg</t>
-  </si>
-  <si>
-    <t>185,0 mg</t>
-  </si>
-  <si>
-    <t>48,0 mg</t>
-  </si>
-  <si>
-    <t>274,0 mg</t>
-  </si>
-  <si>
-    <t>404,0 mg</t>
-  </si>
-  <si>
-    <t>3.273,0 mg</t>
-  </si>
-  <si>
-    <t>3.091,0 mg</t>
-  </si>
-  <si>
-    <t>1.228,0 mg</t>
-  </si>
-  <si>
-    <t>802,0 mg</t>
-  </si>
-  <si>
-    <t>435,0 mg</t>
-  </si>
-  <si>
-    <t>450,0 mg</t>
-  </si>
-  <si>
-    <t>4.347,0 mg</t>
-  </si>
-  <si>
-    <t>921,0 mg</t>
-  </si>
-  <si>
-    <t>746,0 mg</t>
-  </si>
-  <si>
-    <t>1.637,0 mg</t>
-  </si>
-  <si>
-    <t>483,0 mg</t>
-  </si>
-  <si>
-    <t>1.535,0 mg</t>
-  </si>
-  <si>
-    <t>1.400,0 mg</t>
-  </si>
-  <si>
-    <t>1.320,0 mg</t>
-  </si>
-  <si>
-    <t>800,0 mg</t>
-  </si>
-  <si>
-    <t>1.842,0 mg</t>
-  </si>
-  <si>
-    <t>124,0 mg</t>
-  </si>
-  <si>
-    <t>21.274,0 mg</t>
-  </si>
-  <si>
-    <t>580,0 mg</t>
-  </si>
-  <si>
-    <t>614,0 mg</t>
-  </si>
-  <si>
-    <t>682,0 mg</t>
-  </si>
-  <si>
-    <t>4.950,0 mg</t>
-  </si>
-  <si>
-    <t>3.070,0 mg</t>
-  </si>
-  <si>
-    <t>1.318,0 mg</t>
-  </si>
-  <si>
-    <t>1.790,0 mg</t>
-  </si>
-  <si>
-    <t>31.094,0 mg</t>
-  </si>
-  <si>
-    <t>5.080,0 mg</t>
-  </si>
-  <si>
-    <t>169,0 mg</t>
-  </si>
-  <si>
-    <t>773,0 mg</t>
-  </si>
-  <si>
-    <t>201,0 mg</t>
-  </si>
-  <si>
-    <t>170,0 mg</t>
-  </si>
-  <si>
-    <t>2.157,0 mg</t>
-  </si>
-  <si>
-    <t>35.817,0 mg</t>
-  </si>
-  <si>
-    <t>1.023,0 mg</t>
-  </si>
-  <si>
-    <t>88,0 mg</t>
-  </si>
-  <si>
-    <t>186,0 mg</t>
-  </si>
-  <si>
-    <t>250,0 mg</t>
-  </si>
-  <si>
-    <t>6.307,0 mg</t>
-  </si>
-  <si>
-    <t>279,0 mg</t>
-  </si>
-  <si>
-    <t>160,0 mg</t>
-  </si>
-  <si>
-    <t>536,0 mg</t>
-  </si>
-  <si>
-    <t>14,0 mg</t>
-  </si>
-  <si>
-    <t>163,0 mg</t>
-  </si>
-  <si>
-    <t>93,0 mg</t>
-  </si>
-  <si>
-    <t>3,0 mg</t>
-  </si>
-  <si>
-    <t>107,0 mg</t>
-  </si>
-  <si>
-    <t>127,0 mg</t>
-  </si>
-  <si>
-    <t>1.138,0 mg</t>
-  </si>
-  <si>
-    <t>51,0 mg</t>
-  </si>
-  <si>
-    <t>47,0 mg</t>
-  </si>
-  <si>
-    <t>11,0 mg</t>
-  </si>
-  <si>
-    <t>117,0 mg</t>
-  </si>
-  <si>
-    <t>422,0 mg</t>
-  </si>
-  <si>
-    <t>152,0 mg</t>
-  </si>
-  <si>
-    <t>655,0 mg</t>
-  </si>
-  <si>
-    <t>76,0 mg</t>
-  </si>
-  <si>
-    <t>6.230,0 mg</t>
-  </si>
-  <si>
-    <t>3.397,0 mg</t>
-  </si>
-  <si>
-    <t>466,0 mg</t>
-  </si>
-  <si>
-    <t>1.890,0 mg</t>
-  </si>
-  <si>
-    <t>957,0 mg</t>
-  </si>
-  <si>
-    <t>4.403,0 mg</t>
-  </si>
-  <si>
-    <t>2.417,0 mg</t>
-  </si>
-  <si>
-    <t>142,0 mg</t>
-  </si>
-  <si>
-    <t>64,0 mg</t>
-  </si>
-  <si>
-    <t>4,0 mg</t>
-  </si>
-  <si>
-    <t>7.847,0 mg</t>
-  </si>
-  <si>
-    <t>1.739,0 mg</t>
-  </si>
-  <si>
-    <t>785,0 mg</t>
-  </si>
-  <si>
-    <t>620,0 mg</t>
-  </si>
-  <si>
-    <t>1.250,0 mg</t>
-  </si>
-  <si>
-    <t>837,0 mg</t>
-  </si>
-  <si>
-    <t>187,0 mg</t>
-  </si>
-  <si>
-    <t>7,0 mg</t>
-  </si>
-  <si>
-    <t>417,0 mg</t>
-  </si>
-  <si>
-    <t>91,0 mg</t>
-  </si>
-  <si>
-    <t>37,0 mg</t>
-  </si>
-  <si>
-    <t>14.428,0 mg</t>
-  </si>
-  <si>
-    <t>5.793,0 mg</t>
-  </si>
-  <si>
-    <t>1.343,0 mg</t>
-  </si>
-  <si>
-    <t>3.450,0 mg</t>
-  </si>
-  <si>
-    <t>1.105,0 mg</t>
-  </si>
-  <si>
-    <t>909,0 mg</t>
-  </si>
-  <si>
-    <t>6.725,0 mg</t>
-  </si>
-  <si>
-    <t>3.328,0 mg</t>
-  </si>
-  <si>
-    <t>232,0 mg</t>
-  </si>
-  <si>
-    <t>22,0 mg</t>
-  </si>
-  <si>
-    <t>10,0 mg</t>
-  </si>
-  <si>
-    <t>809,0 mg</t>
-  </si>
-  <si>
-    <t>763,0 mg</t>
-  </si>
-  <si>
-    <t>372,0 mg</t>
-  </si>
-  <si>
-    <t>15,0 mg</t>
-  </si>
-  <si>
-    <t>8.174,0 mg</t>
-  </si>
-  <si>
-    <t>5.603,0 mg</t>
-  </si>
-  <si>
-    <t>1.570,0 mg</t>
-  </si>
-  <si>
-    <t>2.113,0 mg</t>
-  </si>
-  <si>
-    <t>369,0 mg</t>
-  </si>
-  <si>
-    <t>9.520,0 mg</t>
-  </si>
-  <si>
-    <t>4.089,0 mg</t>
-  </si>
-  <si>
-    <t>983,0 mg</t>
-  </si>
-  <si>
-    <t>65,0 mg</t>
-  </si>
-  <si>
-    <t>476,0 mg</t>
-  </si>
-  <si>
-    <t>1.388,0 mg</t>
-  </si>
-  <si>
-    <t>8.221,0 mg</t>
-  </si>
-  <si>
-    <t>6.683,0 mg</t>
-  </si>
-  <si>
-    <t>587,0 mg</t>
-  </si>
-  <si>
-    <t>4.768,0 mg</t>
-  </si>
-  <si>
-    <t>2.190,0 mg</t>
-  </si>
-  <si>
-    <t>453,0 mg</t>
-  </si>
-  <si>
-    <t>10.115,0 mg</t>
-  </si>
-  <si>
-    <t>4.461,0 mg</t>
-  </si>
-  <si>
-    <t>53,0 mg</t>
-  </si>
-  <si>
-    <t>350,0 mg</t>
-  </si>
-  <si>
-    <t>455,0 mg</t>
-  </si>
-  <si>
-    <t>782,0 mg</t>
-  </si>
-  <si>
-    <t>2.902,0 mg</t>
-  </si>
-  <si>
-    <t>2.208,0 mg</t>
-  </si>
-  <si>
-    <t>55,0 mg</t>
-  </si>
-  <si>
-    <t>42.660,0 mg</t>
-  </si>
-  <si>
-    <t>1.507,0 mg</t>
-  </si>
-  <si>
-    <t>23.422,0 mg</t>
-  </si>
-  <si>
-    <t>12.931,0 mg</t>
-  </si>
-  <si>
-    <t>2.712,0 mg</t>
-  </si>
-  <si>
-    <t>11.119,0 mg</t>
-  </si>
-  <si>
-    <t>5.503,0 mg</t>
-  </si>
-  <si>
-    <t>1.277,0 mg</t>
-  </si>
-  <si>
-    <t>59.500,0 mg</t>
-  </si>
-  <si>
-    <t>9.296,0 mg</t>
-  </si>
-  <si>
-    <t>122,0 mg</t>
-  </si>
-  <si>
-    <t>1.078,0 mg</t>
-  </si>
-  <si>
-    <t>699,0 mg</t>
-  </si>
-  <si>
-    <t>948,0 mg</t>
-  </si>
-  <si>
-    <t>1.190,0 mg</t>
-  </si>
-  <si>
-    <t>399,0 mg</t>
-  </si>
-  <si>
-    <t>83,0 mg</t>
-  </si>
-  <si>
-    <t>3.000,0 mg</t>
-  </si>
-  <si>
-    <t>1.904,0 mg</t>
-  </si>
-  <si>
-    <t>257,0 mg</t>
-  </si>
-  <si>
-    <t>396,0 mg</t>
-  </si>
-  <si>
-    <t>400,0 µg (= 1.333,3 IE)</t>
   </si>
 </sst>
 </file>
@@ -2921,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3437,223 +3437,223 @@
         <v>369</v>
       </c>
       <c r="AH2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AI2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AL2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AP2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AQ2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AR2" t="s">
         <v>325</v>
       </c>
       <c r="AS2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AT2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AX2" t="s">
         <v>480</v>
       </c>
-      <c r="AU2" t="s">
-        <v>480</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>480</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>480</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>481</v>
-      </c>
       <c r="AY2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AZ2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="BB2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="BC2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="BF2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BJ2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BK2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BL2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BM2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BN2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BO2" t="s">
         <v>375</v>
       </c>
       <c r="BP2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="BQ2" t="s">
+        <v>401</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>507</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>579</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>529</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>593</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>604</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>609</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>620</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>627</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>390</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>541</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>425</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>658</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>665</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>676</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>680</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>684</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>689</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>544</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>515</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>404</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>706</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>709</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CO2" t="s">
         <v>402</v>
       </c>
-      <c r="BR2" t="s">
-        <v>508</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>580</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>530</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>594</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>605</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>610</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>621</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>628</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>391</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>542</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>426</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>659</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>666</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>677</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>681</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>685</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>690</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>545</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>516</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>405</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>707</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>710</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>423</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>403</v>
-      </c>
       <c r="CP2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CS2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CT2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CU2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CZ2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC2" t="s">
         <v>369</v>
@@ -3665,82 +3665,82 @@
         <v>369</v>
       </c>
       <c r="DF2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DG2" t="s">
         <v>373</v>
       </c>
       <c r="DH2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DI2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="DJ2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DK2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="DN2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DO2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="DQ2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DR2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="DS2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DT2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="DW2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="EA2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB2" t="s">
         <v>369</v>
       </c>
       <c r="EC2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="ED2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="EE2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:135" x14ac:dyDescent="0.3">
@@ -3793,7 +3793,7 @@
         <v>234</v>
       </c>
       <c r="Q3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R3" t="s">
         <v>250</v>
@@ -3844,226 +3844,226 @@
         <v>370</v>
       </c>
       <c r="AH3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AI3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AJ3" t="s">
         <v>370</v>
       </c>
       <c r="AK3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AP3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AQ3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AR3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AS3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AT3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AY3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AZ3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="BB3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="BC3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="BF3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BJ3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BK3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BL3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BM3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BN3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="BO3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BP3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="BQ3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BR3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="BS3" t="s">
+        <v>580</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>584</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>594</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>605</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>610</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>526</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>628</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>637</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>646</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>653</v>
+      </c>
+      <c r="CC3" t="s">
         <v>581</v>
       </c>
-      <c r="BT3" t="s">
-        <v>585</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>595</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>606</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>611</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>527</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>629</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>638</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>647</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>654</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>582</v>
-      </c>
       <c r="CD3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="CE3" t="s">
         <v>373</v>
       </c>
       <c r="CF3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CG3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="CH3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="CI3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="CJ3" t="s">
+        <v>698</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>702</v>
+      </c>
+      <c r="CL3" t="s">
         <v>699</v>
       </c>
-      <c r="CK3" t="s">
-        <v>703</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>700</v>
-      </c>
       <c r="CM3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="CN3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="CO3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="CP3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CS3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CT3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CU3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CZ3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD3" t="s">
         <v>375</v>
@@ -4072,82 +4072,82 @@
         <v>369</v>
       </c>
       <c r="DF3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DG3" t="s">
         <v>370</v>
       </c>
       <c r="DH3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DI3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="DJ3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="DK3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="DN3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DO3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="DQ3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DR3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DS3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DT3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="DW3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="EA3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="ED3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="EE3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:135" x14ac:dyDescent="0.3">
@@ -4251,151 +4251,151 @@
         <v>371</v>
       </c>
       <c r="AH4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AK4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AL4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AP4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AQ4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AR4" t="s">
         <v>363</v>
       </c>
       <c r="AS4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AY4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AZ4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="BB4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BC4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BF4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="BJ4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="BK4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BL4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BM4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BN4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="BO4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="BP4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="BQ4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="BR4" t="s">
         <v>374</v>
       </c>
       <c r="BS4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="BT4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BU4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BV4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BW4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BX4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BY4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BZ4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="CA4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="CB4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="CC4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="CD4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="CE4" t="s">
         <v>376</v>
@@ -4404,157 +4404,157 @@
         <v>372</v>
       </c>
       <c r="CG4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="CH4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="CI4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="CJ4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="CK4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CL4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="CM4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="CN4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CO4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="CP4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CS4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CT4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CU4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CZ4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DE4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DF4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DG4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="DH4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DI4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="DJ4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DK4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DN4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DO4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DQ4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DR4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="DS4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DT4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="DW4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="EA4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="ED4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="EE4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:135" x14ac:dyDescent="0.3">
@@ -4658,310 +4658,310 @@
         <v>372</v>
       </c>
       <c r="AH5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AI5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AJ5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AK5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AQ5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AR5" t="s">
         <v>282</v>
       </c>
       <c r="AS5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AT5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="BC5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="BF5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BJ5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BK5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BL5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BM5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BN5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BO5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="BP5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="BQ5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="BR5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BS5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BT5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BU5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="BV5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BW5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BX5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BY5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BZ5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="CA5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="CB5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="CC5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="CD5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CE5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="CF5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="CG5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CH5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CI5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="CJ5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CK5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="CL5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="CM5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="CN5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="CO5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CP5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CS5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CT5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CU5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CZ5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="DE5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="DF5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DG5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="DH5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DI5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="DJ5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="DK5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="DN5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DO5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="DQ5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DR5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="DS5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DT5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="DW5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="EA5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="ED5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="EE5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:135" x14ac:dyDescent="0.3">
@@ -5065,28 +5065,28 @@
         <v>373</v>
       </c>
       <c r="AH6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AI6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ6" t="s">
         <v>371</v>
       </c>
       <c r="AK6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL6" t="s">
         <v>376</v>
       </c>
       <c r="AM6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AN6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AP6" t="s">
         <v>291</v>
@@ -5095,280 +5095,280 @@
         <v>325</v>
       </c>
       <c r="AR6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AS6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BC6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BF6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="BI6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="BK6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="BL6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BM6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BN6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BO6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BP6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="BQ6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="BR6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BS6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BT6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BU6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BV6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="BW6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BX6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="BY6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BZ6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="CA6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="CB6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="CC6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="CD6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="CE6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="CF6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="CG6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CH6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CI6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CJ6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CK6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CL6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CM6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CN6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="CO6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="CP6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CS6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="CT6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="CU6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CZ6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="DE6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="DF6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="DG6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="DH6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="DI6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="DJ6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="DK6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="DN6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="DO6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="DQ6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="DR6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="DS6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="DT6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="DW6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="EA6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="ED6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="EE6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:135" x14ac:dyDescent="0.3">
@@ -5472,310 +5472,310 @@
         <v>374</v>
       </c>
       <c r="AH7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AM7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AP7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AQ7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AR7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AS7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AT7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BC7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BF7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BI7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BK7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BL7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BM7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BN7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="BO7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BP7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BQ7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="BR7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BS7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BT7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BU7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="BV7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BW7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BX7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BY7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="BZ7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="CA7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="CB7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="CC7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="CD7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="CE7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="CF7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="CG7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CH7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CI7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CJ7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CK7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CL7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CM7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CN7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="CO7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="CP7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="CR7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="CS7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="CT7" t="s">
         <v>371</v>
       </c>
       <c r="CU7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="CY7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="CZ7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="DE7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DF7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="DG7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="DH7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DI7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="DJ7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="DK7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DL7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="DN7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="DO7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="DP7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="DQ7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="DR7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="DS7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="DT7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="DW7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="EA7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="ED7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="EE7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:135" x14ac:dyDescent="0.3">
@@ -5879,310 +5879,310 @@
         <v>370</v>
       </c>
       <c r="AH8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AK8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AP8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AQ8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AR8" t="s">
         <v>332</v>
       </c>
       <c r="AS8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AT8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BC8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BF8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BK8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BL8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BM8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BN8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BO8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BP8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BQ8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BR8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BS8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BT8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BU8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BV8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BW8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="BX8" t="s">
+        <v>624</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>632</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>642</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>649</v>
+      </c>
+      <c r="CB8" t="s">
         <v>625</v>
       </c>
-      <c r="BY8" t="s">
-        <v>633</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>643</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>650</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>626</v>
-      </c>
       <c r="CC8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="CD8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="CE8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="CF8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="CG8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CH8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CI8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CJ8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CK8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CL8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CM8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CN8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="CO8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="CP8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="CQ8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="CR8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="CS8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="CT8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="CU8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW8" t="s">
+        <v>731</v>
+      </c>
+      <c r="CX8" t="s">
         <v>732</v>
       </c>
-      <c r="CX8" t="s">
+      <c r="CY8" t="s">
         <v>733</v>
       </c>
-      <c r="CY8" t="s">
-        <v>734</v>
-      </c>
       <c r="CZ8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DE8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="DF8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="DG8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="DH8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="DI8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="DJ8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DK8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="DN8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DO8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="DQ8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DR8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="DS8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="DT8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="DU8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="DV8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="DW8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="DX8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="EA8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="ED8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="EE8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:135" x14ac:dyDescent="0.3">
@@ -6286,310 +6286,310 @@
         <v>375</v>
       </c>
       <c r="AH9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AI9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AJ9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AK9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AP9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AR9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AS9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AT9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BC9" t="s">
         <v>373</v>
       </c>
       <c r="BD9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE9" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF9" t="s">
         <v>498</v>
       </c>
-      <c r="BF9" t="s">
-        <v>499</v>
-      </c>
       <c r="BG9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BJ9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BK9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BL9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BM9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="BN9" t="s">
+        <v>427</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>561</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>569</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>488</v>
+      </c>
+      <c r="BS9" t="s">
         <v>428</v>
       </c>
-      <c r="BO9" t="s">
-        <v>553</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>562</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>570</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>489</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>429</v>
-      </c>
       <c r="BT9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BU9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="BV9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BW9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="BX9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BY9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BZ9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="CA9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="CB9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="CC9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="CD9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="CE9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CF9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="CG9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="CH9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="CI9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="CJ9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="CK9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="CL9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="CM9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="CN9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="CO9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="CP9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CS9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CT9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CU9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CZ9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="DE9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DF9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DG9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="DH9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DI9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DJ9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DK9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="DN9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DO9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="DQ9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DR9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="DS9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="DT9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="DW9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="EA9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="ED9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="EE9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:135" x14ac:dyDescent="0.3">
@@ -6693,22 +6693,22 @@
         <v>376</v>
       </c>
       <c r="AH10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AI10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AJ10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AK10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AM10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN10" t="s">
         <v>321</v>
@@ -6717,286 +6717,286 @@
         <v>312</v>
       </c>
       <c r="AP10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AQ10" t="s">
         <v>338</v>
       </c>
       <c r="AR10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AS10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AT10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BC10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="BE10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="BF10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BK10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BL10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BM10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BN10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BO10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="BP10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="BQ10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="BR10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BS10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BT10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BU10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BV10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BX10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BY10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="BZ10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="CA10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="CB10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="CC10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="CD10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="CE10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CF10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CG10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CH10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CI10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CJ10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CK10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CL10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CM10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CN10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="CO10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CP10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CS10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CT10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CU10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CZ10" t="s">
+        <v>734</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>549</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>579</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>507</v>
+      </c>
+      <c r="DD10" t="s">
         <v>735</v>
       </c>
-      <c r="DA10" t="s">
-        <v>550</v>
-      </c>
-      <c r="DB10" t="s">
-        <v>580</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>508</v>
-      </c>
-      <c r="DD10" t="s">
-        <v>736</v>
-      </c>
       <c r="DE10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="DF10" t="s">
         <v>372</v>
       </c>
       <c r="DG10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="DH10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="DI10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="DJ10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="DK10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="DN10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="DO10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="DP10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DQ10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="DR10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="DS10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="DT10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="DW10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="EA10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="EB10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="EC10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="ED10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="EE10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:135" x14ac:dyDescent="0.3">
@@ -7100,310 +7100,310 @@
         <v>375</v>
       </c>
       <c r="AH11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AJ11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AK11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AM11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO11" t="s">
         <v>287</v>
       </c>
       <c r="AP11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AQ11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AR11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AS11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AT11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="BC11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="BF11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="BJ11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="BK11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BL11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BM11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BN11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BO11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="BP11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BQ11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="BR11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BS11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BT11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BU11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="BV11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BW11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BX11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BY11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="BZ11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="CA11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="CB11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="CC11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="CD11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CE11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="CF11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CG11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="CH11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="CI11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="CJ11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="CK11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="CL11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="CM11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="CN11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="CO11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="CP11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="CS11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CT11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CU11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CZ11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DE11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="DF11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DG11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="DH11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DI11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="DJ11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="DK11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="DN11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DO11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="DQ11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DR11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="DS11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="DT11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="DW11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="EA11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="ED11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="EE11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:135" x14ac:dyDescent="0.3">
@@ -7504,31 +7504,31 @@
         <v>368</v>
       </c>
       <c r="AG12" t="s">
-        <v>377</v>
+        <v>826</v>
       </c>
       <c r="AH12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AI12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AK12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AP12" t="s">
         <v>316</v>
@@ -7537,280 +7537,280 @@
         <v>332</v>
       </c>
       <c r="AR12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AS12" t="s">
         <v>363</v>
       </c>
       <c r="AT12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AY12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BA12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BB12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BC12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BD12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BE12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BF12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BH12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BK12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BL12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BM12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BN12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="BO12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="BP12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BQ12" t="s">
+        <v>571</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>578</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>583</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>592</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>603</v>
+      </c>
+      <c r="BV12" t="s">
         <v>572</v>
       </c>
-      <c r="BR12" t="s">
-        <v>579</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>584</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>593</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>604</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>573</v>
-      </c>
       <c r="BW12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BX12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BY12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="BZ12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="CA12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="CB12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="CC12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CD12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CE12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="CF12" t="s">
         <v>375</v>
       </c>
       <c r="CG12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CH12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CI12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CJ12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CK12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CL12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CM12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CN12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="CO12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="CP12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CQ12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CR12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CS12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CT12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CU12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CV12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CW12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CX12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="CY12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CZ12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DA12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DB12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DC12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DD12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DE12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="DF12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DG12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="DH12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DI12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="DJ12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="DK12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DL12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DM12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="DN12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DO12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DP12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="DQ12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DR12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="DS12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DT12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DU12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DV12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="DW12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DX12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DY12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DZ12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="EA12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EB12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="EC12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="ED12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="EE12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
